--- a/docs/samples/Duke - Stock Review Mel v2.xlsx
+++ b/docs/samples/Duke - Stock Review Mel v2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="256">
   <si>
     <t>Last Price</t>
   </si>
@@ -745,9 +745,6 @@
     <t>pTicker</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>pStartDate</t>
   </si>
   <si>
@@ -781,9 +778,6 @@
     <t>=smfGetYahooHistory(V9,V10,V11,V12,V13,V14,V15,V16,V17)</t>
   </si>
   <si>
-    <t>VLO</t>
-  </si>
-  <si>
     <t>Magnitude - Consensus Estimate Trend</t>
   </si>
   <si>
@@ -794,6 +788,9 @@
   </si>
   <si>
     <t>SS 10D Trend</t>
+  </si>
+  <si>
+    <t>MSFT</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1139,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,19 +1341,37 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1380,34 +1395,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1510,7 +1510,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>VLO</c:v>
+              <c:v>MSFT</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1519,7 +1519,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0130438324702291E-2"/>
+          <c:x val="8.9842186090146933E-3"/>
           <c:y val="3.2245184736523318E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1557,91 +1557,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,91 +1653,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>112.040001</c:v>
+                  <c:v>369.29998799999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.150002</c:v>
+                  <c:v>372.01001000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.5</c:v>
+                  <c:v>376.36999500000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.199997</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.449997</c:v>
+                  <c:v>385.48998999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.550003</c:v>
+                  <c:v>393.66000400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113.66999800000001</c:v>
+                  <c:v>387.98001099999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.849998</c:v>
+                  <c:v>391.72000100000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.58000199999999</c:v>
+                  <c:v>395.76001000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.019997</c:v>
+                  <c:v>400.01998900000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113.69000200000001</c:v>
+                  <c:v>395.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.849998</c:v>
+                  <c:v>401.540009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112.220001</c:v>
+                  <c:v>404.32000699999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.5</c:v>
+                  <c:v>404.36999500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.25</c:v>
+                  <c:v>406.05999800000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.25</c:v>
+                  <c:v>412.26001000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.69000200000001</c:v>
+                  <c:v>406.959991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.370003</c:v>
+                  <c:v>401.82998700000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.41999800000001</c:v>
+                  <c:v>403.80999800000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115.779999</c:v>
+                  <c:v>409.89999399999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116.019997</c:v>
+                  <c:v>405.88000499999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116.529999</c:v>
+                  <c:v>407.44000199999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>113.949997</c:v>
+                  <c:v>414.04998799999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112.900002</c:v>
+                  <c:v>415.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.720001</c:v>
+                  <c:v>420.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111</c:v>
+                  <c:v>404.94000199999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110.629997</c:v>
+                  <c:v>408.07000699999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>111.05999799999999</c:v>
+                  <c:v>408.14001500000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112.629997</c:v>
+                  <c:v>407.959991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,91 +1762,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,91 +1858,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>112.480003</c:v>
+                  <c:v>375.20001200000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.050003</c:v>
+                  <c:v>375.98998999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.760002</c:v>
+                  <c:v>384.17001299999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.959999</c:v>
+                  <c:v>390.67999300000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.370003</c:v>
+                  <c:v>388.67999300000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.279999</c:v>
+                  <c:v>394.02999899999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.66999800000001</c:v>
+                  <c:v>390.10998499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115.58000199999999</c:v>
+                  <c:v>393.98998999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.94000200000001</c:v>
+                  <c:v>398.67001299999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.459999</c:v>
+                  <c:v>400.61999500000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.19000200000001</c:v>
+                  <c:v>399.38000499999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.07</c:v>
+                  <c:v>405.63000499999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113.150002</c:v>
+                  <c:v>407.01001000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.029999</c:v>
+                  <c:v>406.17001299999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.300003</c:v>
+                  <c:v>409.98001099999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116.82</c:v>
+                  <c:v>413.04998799999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115.360001</c:v>
+                  <c:v>415.32000699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.209999</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.910004</c:v>
+                  <c:v>412.64999399999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117.43</c:v>
+                  <c:v>411.16000400000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116.68</c:v>
+                  <c:v>407.97000100000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>117.66999800000001</c:v>
+                  <c:v>414.29998799999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>114.339996</c:v>
+                  <c:v>415.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113.199997</c:v>
+                  <c:v>420.82000699999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111.959999</c:v>
+                  <c:v>420.73998999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111.94000200000001</c:v>
+                  <c:v>410.07000699999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>111.610001</c:v>
+                  <c:v>409.83999599999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112.989998</c:v>
+                  <c:v>409.13000499999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112.760002</c:v>
+                  <c:v>408.290009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,91 +1967,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,91 +2063,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>111.019997</c:v>
+                  <c:v>369.01001000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.839996</c:v>
+                  <c:v>371.19000199999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.5</c:v>
+                  <c:v>376.32000699999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.019997</c:v>
+                  <c:v>380.38000499999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110.220001</c:v>
+                  <c:v>384.64999399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.150002</c:v>
+                  <c:v>387.61999500000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.91999800000001</c:v>
+                  <c:v>384.80999800000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.949997</c:v>
+                  <c:v>390.11999500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113.80999799999999</c:v>
+                  <c:v>393.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.529999</c:v>
+                  <c:v>393.58999599999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.30999799999999</c:v>
+                  <c:v>393.92999300000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111.93</c:v>
+                  <c:v>400.45001200000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.410004</c:v>
+                  <c:v>402.52999899999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.220001</c:v>
+                  <c:v>402.42999300000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.120003</c:v>
+                  <c:v>404.32998700000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114</c:v>
+                  <c:v>406.45001200000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.639999</c:v>
+                  <c:v>397.209991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.32</c:v>
+                  <c:v>401.79998799999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114.199997</c:v>
+                  <c:v>403.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114.91999800000001</c:v>
+                  <c:v>403.98998999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115.220001</c:v>
+                  <c:v>402.91000400000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.82</c:v>
+                  <c:v>407.39999399999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112.05999799999999</c:v>
+                  <c:v>412.52999899999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111.07</c:v>
+                  <c:v>415.08999599999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.629997</c:v>
+                  <c:v>414.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.75</c:v>
+                  <c:v>403.39001500000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110.150002</c:v>
+                  <c:v>404.57000699999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>110.83000199999999</c:v>
+                  <c:v>404.290009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>109.910004</c:v>
+                  <c:v>403.44000199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,91 +2172,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,91 +2268,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>111.939438</c:v>
+                  <c:v>373.99838299999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.57970400000001</c:v>
+                  <c:v>375.09637500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.38840500000001</c:v>
+                  <c:v>382.063446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.96015199999999</c:v>
+                  <c:v>383.92004400000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.889481</c:v>
+                  <c:v>387.75295999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.878044</c:v>
+                  <c:v>389.549622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.247063</c:v>
+                  <c:v>388.75109900000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.227791</c:v>
+                  <c:v>393.14297499999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.377686</c:v>
+                  <c:v>397.93414300000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.15784499999999</c:v>
+                  <c:v>395.77810699999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.79882000000001</c:v>
+                  <c:v>398.16369600000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.598969</c:v>
+                  <c:v>401.81692500000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.70961</c:v>
+                  <c:v>404.122681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.639664</c:v>
+                  <c:v>403.18441799999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.177834</c:v>
+                  <c:v>408.96371499999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.917297</c:v>
+                  <c:v>407.83581500000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.518303</c:v>
+                  <c:v>396.84613000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>115.566833</c:v>
+                  <c:v>403.03469799999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.406944</c:v>
+                  <c:v>410.46096799999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116.48616800000001</c:v>
+                  <c:v>404.90124500000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116.12642700000001</c:v>
+                  <c:v>404.74151599999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.767403</c:v>
+                  <c:v>413.285706</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112.908745</c:v>
+                  <c:v>413.34561200000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111.16999800000001</c:v>
+                  <c:v>419.77371199999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111.720001</c:v>
+                  <c:v>414.49349999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.93</c:v>
+                  <c:v>405.57000699999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110.889999</c:v>
+                  <c:v>409.48998999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112.339996</c:v>
+                  <c:v>406.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>110.724998</c:v>
+                  <c:v>404.05999800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,11 +2385,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="205854720"/>
-        <c:axId val="318995200"/>
+        <c:axId val="303921664"/>
+        <c:axId val="303973504"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="205854720"/>
+        <c:axId val="303921664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318995200"/>
+        <c:crossAx val="303973504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2407,7 +2407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318995200"/>
+        <c:axId val="303973504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,7 +2418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205854720"/>
+        <c:crossAx val="303921664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2472,7 +2472,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Valero Energy Corporation</c:v>
+              <c:v>Microsoft Corporation</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -2827,277 +2827,277 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>111.896584</c:v>
+                  <c:v>328.54437300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.608879</c:v>
+                  <c:v>327.119934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.880737</c:v>
+                  <c:v>331.13433800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.28349300000001</c:v>
+                  <c:v>329.87918100000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.918419</c:v>
+                  <c:v>326.46246300000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.775536</c:v>
+                  <c:v>331.353455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.192123</c:v>
+                  <c:v>330.77572600000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.090919</c:v>
+                  <c:v>328.83325200000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.40445699999999</c:v>
+                  <c:v>330.03857399999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>106.53935199999999</c:v>
+                  <c:v>325.406586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.40445699999999</c:v>
+                  <c:v>328.04629499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.620796</c:v>
+                  <c:v>329.25161700000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.54935500000001</c:v>
+                  <c:v>339.352417</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.491829</c:v>
+                  <c:v>326.62185699999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.18428</c:v>
+                  <c:v>328.534424</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.18428</c:v>
+                  <c:v>336.005402</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.944183</c:v>
+                  <c:v>336.80230699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>113.126755</c:v>
+                  <c:v>344.731537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113.305328</c:v>
+                  <c:v>346.97283900000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>110.08107800000001</c:v>
+                  <c:v>351.43548600000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110.73584700000001</c:v>
+                  <c:v>355.151093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>109.515587</c:v>
+                  <c:v>359.13562000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110.41838799999999</c:v>
+                  <c:v>361.79528800000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112.094994</c:v>
+                  <c:v>359.294983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114.436302</c:v>
+                  <c:v>368.24026500000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>114.773613</c:v>
+                  <c:v>365.26181000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115.686317</c:v>
+                  <c:v>368.83789100000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>116.370857</c:v>
+                  <c:v>368.98767099999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>116.499825</c:v>
+                  <c:v>375.47567700000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115.825211</c:v>
+                  <c:v>369.167328</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>112.561272</c:v>
+                  <c:v>376.74331699999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>113.970024</c:v>
+                  <c:v>372.38137799999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>111.718002</c:v>
+                  <c:v>377.152557</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>115.031548</c:v>
+                  <c:v>376.73330700000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>114.128761</c:v>
+                  <c:v>377.91113300000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>114.595039</c:v>
+                  <c:v>381.99362200000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>112.58111599999999</c:v>
+                  <c:v>378.15069599999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>112.809288</c:v>
+                  <c:v>378.21060199999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>114.505745</c:v>
+                  <c:v>373.81872600000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>117.08515199999999</c:v>
+                  <c:v>368.45864899999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>119.773689</c:v>
+                  <c:v>371.83236699999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>122.01578499999999</c:v>
+                  <c:v>368.11923200000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>124.714241</c:v>
+                  <c:v>370.265289</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>123.553505</c:v>
+                  <c:v>373.53924599999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>125.180519</c:v>
+                  <c:v>370.61462399999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>124.47614299999999</c:v>
+                  <c:v>373.688965</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>128.04763800000001</c:v>
+                  <c:v>373.67895499999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>127.888893</c:v>
+                  <c:v>365.254547</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>127.75000799999999</c:v>
+                  <c:v>370.04571499999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>126.30999799999999</c:v>
+                  <c:v>371.96212800000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125.599998</c:v>
+                  <c:v>372.57104500000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>126.889999</c:v>
+                  <c:v>369.93588299999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>129.28999300000001</c:v>
+                  <c:v>372.850525</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>131.33999600000001</c:v>
+                  <c:v>373.88857999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>133.949997</c:v>
+                  <c:v>373.96844499999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>134.86000100000001</c:v>
+                  <c:v>373.379547</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>139.05999800000001</c:v>
+                  <c:v>374.58728000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>136.5</c:v>
+                  <c:v>375.34588600000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>131.13999899999999</c:v>
+                  <c:v>370.18542500000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>130.94000199999999</c:v>
+                  <c:v>369.91592400000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>132.020004</c:v>
+                  <c:v>367.26083399999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>133.58000200000001</c:v>
+                  <c:v>367.07119799999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>131.16000399999999</c:v>
+                  <c:v>373.99838299999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>130.88999899999999</c:v>
+                  <c:v>375.09637500000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>129.36999499999999</c:v>
+                  <c:v>382.063446</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>129.46000699999999</c:v>
+                  <c:v>383.92004400000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>133.11999499999999</c:v>
+                  <c:v>387.75295999999997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>131.60000600000001</c:v>
+                  <c:v>389.549622</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>131.38999899999999</c:v>
+                  <c:v>388.75109900000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>131.449997</c:v>
+                  <c:v>393.14297499999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>129.89999399999999</c:v>
+                  <c:v>397.93414300000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>133.58000200000001</c:v>
+                  <c:v>395.77810699999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>133.11999499999999</c:v>
+                  <c:v>398.16369600000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>134.029999</c:v>
+                  <c:v>401.81692500000003</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>136.25</c:v>
+                  <c:v>404.122681</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>142.05999800000001</c:v>
+                  <c:v>403.18441799999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>143.740005</c:v>
+                  <c:v>408.96371499999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>146.259995</c:v>
+                  <c:v>407.83581500000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>145.479996</c:v>
+                  <c:v>396.84613000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>145.949997</c:v>
+                  <c:v>403.03469799999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>143.679993</c:v>
+                  <c:v>410.46096799999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>146.279999</c:v>
+                  <c:v>404.90124500000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>142.66000399999999</c:v>
+                  <c:v>404.74151599999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>142.970001</c:v>
+                  <c:v>413.285706</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>146.300003</c:v>
+                  <c:v>413.34561200000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>145.270004</c:v>
+                  <c:v>419.77371199999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>146.53999300000001</c:v>
+                  <c:v>414.49349999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>141.58000200000001</c:v>
+                  <c:v>405.57000699999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>143.949997</c:v>
+                  <c:v>409.48998999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>147.179993</c:v>
+                  <c:v>406.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>141.51499899999999</c:v>
+                  <c:v>404.05999800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,8 +3119,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304829440"/>
-        <c:axId val="308569792"/>
+        <c:axId val="302940160"/>
+        <c:axId val="303976960"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3429,277 +3429,277 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="0.00">
-                  <c:v>7.63</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,11 +3721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304834560"/>
-        <c:axId val="308570944"/>
+        <c:axId val="302941184"/>
+        <c:axId val="303977536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304829440"/>
+        <c:axId val="302940160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,7 +3769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308569792"/>
+        <c:crossAx val="303976960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3777,7 +3777,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308569792"/>
+        <c:axId val="303976960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,12 +3828,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304829440"/>
+        <c:crossAx val="302940160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308570944"/>
+        <c:axId val="303977536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,12 +3867,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304834560"/>
+        <c:crossAx val="302941184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="304834560"/>
+        <c:axId val="302941184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308570944"/>
+        <c:crossAx val="303977536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4000,7 +4000,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>VLO</c:v>
+              <c:v>MSFT</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4047,91 +4047,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,91 +4143,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>112.040001</c:v>
+                  <c:v>369.29998799999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.150002</c:v>
+                  <c:v>372.01001000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.5</c:v>
+                  <c:v>376.36999500000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.199997</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.449997</c:v>
+                  <c:v>385.48998999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.550003</c:v>
+                  <c:v>393.66000400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113.66999800000001</c:v>
+                  <c:v>387.98001099999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.849998</c:v>
+                  <c:v>391.72000100000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.58000199999999</c:v>
+                  <c:v>395.76001000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.019997</c:v>
+                  <c:v>400.01998900000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113.69000200000001</c:v>
+                  <c:v>395.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.849998</c:v>
+                  <c:v>401.540009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112.220001</c:v>
+                  <c:v>404.32000699999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.5</c:v>
+                  <c:v>404.36999500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.25</c:v>
+                  <c:v>406.05999800000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.25</c:v>
+                  <c:v>412.26001000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.69000200000001</c:v>
+                  <c:v>406.959991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.370003</c:v>
+                  <c:v>401.82998700000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.41999800000001</c:v>
+                  <c:v>403.80999800000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115.779999</c:v>
+                  <c:v>409.89999399999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116.019997</c:v>
+                  <c:v>405.88000499999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116.529999</c:v>
+                  <c:v>407.44000199999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>113.949997</c:v>
+                  <c:v>414.04998799999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112.900002</c:v>
+                  <c:v>415.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.720001</c:v>
+                  <c:v>420.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111</c:v>
+                  <c:v>404.94000199999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110.629997</c:v>
+                  <c:v>408.07000699999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>111.05999799999999</c:v>
+                  <c:v>408.14001500000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112.629997</c:v>
+                  <c:v>407.959991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4252,91 +4252,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4348,91 +4348,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>112.480003</c:v>
+                  <c:v>375.20001200000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.050003</c:v>
+                  <c:v>375.98998999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.760002</c:v>
+                  <c:v>384.17001299999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.959999</c:v>
+                  <c:v>390.67999300000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.370003</c:v>
+                  <c:v>388.67999300000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.279999</c:v>
+                  <c:v>394.02999899999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.66999800000001</c:v>
+                  <c:v>390.10998499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115.58000199999999</c:v>
+                  <c:v>393.98998999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.94000200000001</c:v>
+                  <c:v>398.67001299999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.459999</c:v>
+                  <c:v>400.61999500000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.19000200000001</c:v>
+                  <c:v>399.38000499999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.07</c:v>
+                  <c:v>405.63000499999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113.150002</c:v>
+                  <c:v>407.01001000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.029999</c:v>
+                  <c:v>406.17001299999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.300003</c:v>
+                  <c:v>409.98001099999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116.82</c:v>
+                  <c:v>413.04998799999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115.360001</c:v>
+                  <c:v>415.32000699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.209999</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.910004</c:v>
+                  <c:v>412.64999399999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117.43</c:v>
+                  <c:v>411.16000400000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116.68</c:v>
+                  <c:v>407.97000100000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>117.66999800000001</c:v>
+                  <c:v>414.29998799999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>114.339996</c:v>
+                  <c:v>415.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113.199997</c:v>
+                  <c:v>420.82000699999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111.959999</c:v>
+                  <c:v>420.73998999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111.94000200000001</c:v>
+                  <c:v>410.07000699999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>111.610001</c:v>
+                  <c:v>409.83999599999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112.989998</c:v>
+                  <c:v>409.13000499999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112.760002</c:v>
+                  <c:v>408.290009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4457,91 +4457,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4553,91 +4553,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>111.019997</c:v>
+                  <c:v>369.01001000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.839996</c:v>
+                  <c:v>371.19000199999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.5</c:v>
+                  <c:v>376.32000699999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.019997</c:v>
+                  <c:v>380.38000499999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110.220001</c:v>
+                  <c:v>384.64999399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.150002</c:v>
+                  <c:v>387.61999500000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.91999800000001</c:v>
+                  <c:v>384.80999800000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.949997</c:v>
+                  <c:v>390.11999500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113.80999799999999</c:v>
+                  <c:v>393.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.529999</c:v>
+                  <c:v>393.58999599999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.30999799999999</c:v>
+                  <c:v>393.92999300000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111.93</c:v>
+                  <c:v>400.45001200000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.410004</c:v>
+                  <c:v>402.52999899999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.220001</c:v>
+                  <c:v>402.42999300000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.120003</c:v>
+                  <c:v>404.32998700000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114</c:v>
+                  <c:v>406.45001200000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.639999</c:v>
+                  <c:v>397.209991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.32</c:v>
+                  <c:v>401.79998799999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114.199997</c:v>
+                  <c:v>403.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114.91999800000001</c:v>
+                  <c:v>403.98998999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115.220001</c:v>
+                  <c:v>402.91000400000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.82</c:v>
+                  <c:v>407.39999399999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112.05999799999999</c:v>
+                  <c:v>412.52999899999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111.07</c:v>
+                  <c:v>415.08999599999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.629997</c:v>
+                  <c:v>414.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.75</c:v>
+                  <c:v>403.39001500000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110.150002</c:v>
+                  <c:v>404.57000699999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>110.83000199999999</c:v>
+                  <c:v>404.290009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>109.910004</c:v>
+                  <c:v>403.44000199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4662,91 +4662,91 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45159</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45160</c:v>
+                  <c:v>45300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45161</c:v>
+                  <c:v>45301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45162</c:v>
+                  <c:v>45302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45163</c:v>
+                  <c:v>45303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45166</c:v>
+                  <c:v>45307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45167</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45168</c:v>
+                  <c:v>45309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45169</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45170</c:v>
+                  <c:v>45313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45174</c:v>
+                  <c:v>45314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45175</c:v>
+                  <c:v>45315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45176</c:v>
+                  <c:v>45316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45177</c:v>
+                  <c:v>45317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45180</c:v>
+                  <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45181</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45182</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45183</c:v>
+                  <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45184</c:v>
+                  <c:v>45324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45187</c:v>
+                  <c:v>45327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45188</c:v>
+                  <c:v>45328</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45189</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45190</c:v>
+                  <c:v>45330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45191</c:v>
+                  <c:v>45331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45194</c:v>
+                  <c:v>45334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45195</c:v>
+                  <c:v>45335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45196</c:v>
+                  <c:v>45336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45197</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45198</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4758,91 +4758,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>111.939438</c:v>
+                  <c:v>373.99838299999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.57970400000001</c:v>
+                  <c:v>375.09637500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.38840500000001</c:v>
+                  <c:v>382.063446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.96015199999999</c:v>
+                  <c:v>383.92004400000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.889481</c:v>
+                  <c:v>387.75295999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.878044</c:v>
+                  <c:v>389.549622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.247063</c:v>
+                  <c:v>388.75109900000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.227791</c:v>
+                  <c:v>393.14297499999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.377686</c:v>
+                  <c:v>397.93414300000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.15784499999999</c:v>
+                  <c:v>395.77810699999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.79882000000001</c:v>
+                  <c:v>398.16369600000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.598969</c:v>
+                  <c:v>401.81692500000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.70961</c:v>
+                  <c:v>404.122681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.639664</c:v>
+                  <c:v>403.18441799999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.177834</c:v>
+                  <c:v>408.96371499999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.917297</c:v>
+                  <c:v>407.83581500000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.518303</c:v>
+                  <c:v>396.84613000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>115.566833</c:v>
+                  <c:v>403.03469799999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.406944</c:v>
+                  <c:v>410.46096799999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116.48616800000001</c:v>
+                  <c:v>404.90124500000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116.12642700000001</c:v>
+                  <c:v>404.74151599999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.767403</c:v>
+                  <c:v>413.285706</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112.908745</c:v>
+                  <c:v>413.34561200000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111.16999800000001</c:v>
+                  <c:v>419.77371199999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111.720001</c:v>
+                  <c:v>414.49349999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.93</c:v>
+                  <c:v>405.57000699999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110.889999</c:v>
+                  <c:v>409.48998999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112.339996</c:v>
+                  <c:v>406.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>110.724998</c:v>
+                  <c:v>404.05999800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4875,11 +4875,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="308664832"/>
-        <c:axId val="318988288"/>
+        <c:axId val="302942208"/>
+        <c:axId val="303979264"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="308664832"/>
+        <c:axId val="302942208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,7 +4889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318988288"/>
+        <c:crossAx val="303979264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4897,7 +4897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318988288"/>
+        <c:axId val="303979264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,7 +4908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308664832"/>
+        <c:crossAx val="302942208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4967,7 +4967,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Valero Energy Corporation</c:v>
+              <c:v>Microsoft Corporation</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -5322,277 +5322,277 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>111.896584</c:v>
+                  <c:v>328.54437300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.608879</c:v>
+                  <c:v>327.119934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.880737</c:v>
+                  <c:v>331.13433800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.28349300000001</c:v>
+                  <c:v>329.87918100000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.918419</c:v>
+                  <c:v>326.46246300000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.775536</c:v>
+                  <c:v>331.353455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.192123</c:v>
+                  <c:v>330.77572600000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.090919</c:v>
+                  <c:v>328.83325200000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.40445699999999</c:v>
+                  <c:v>330.03857399999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>106.53935199999999</c:v>
+                  <c:v>325.406586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.40445699999999</c:v>
+                  <c:v>328.04629499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.620796</c:v>
+                  <c:v>329.25161700000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.54935500000001</c:v>
+                  <c:v>339.352417</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.491829</c:v>
+                  <c:v>326.62185699999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.18428</c:v>
+                  <c:v>328.534424</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.18428</c:v>
+                  <c:v>336.005402</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.944183</c:v>
+                  <c:v>336.80230699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>113.126755</c:v>
+                  <c:v>344.731537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113.305328</c:v>
+                  <c:v>346.97283900000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>110.08107800000001</c:v>
+                  <c:v>351.43548600000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110.73584700000001</c:v>
+                  <c:v>355.151093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>109.515587</c:v>
+                  <c:v>359.13562000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110.41838799999999</c:v>
+                  <c:v>361.79528800000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112.094994</c:v>
+                  <c:v>359.294983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114.436302</c:v>
+                  <c:v>368.24026500000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>114.773613</c:v>
+                  <c:v>365.26181000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115.686317</c:v>
+                  <c:v>368.83789100000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>116.370857</c:v>
+                  <c:v>368.98767099999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>116.499825</c:v>
+                  <c:v>375.47567700000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115.825211</c:v>
+                  <c:v>369.167328</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>112.561272</c:v>
+                  <c:v>376.74331699999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>113.970024</c:v>
+                  <c:v>372.38137799999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>111.718002</c:v>
+                  <c:v>377.152557</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>115.031548</c:v>
+                  <c:v>376.73330700000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>114.128761</c:v>
+                  <c:v>377.91113300000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>114.595039</c:v>
+                  <c:v>381.99362200000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>112.58111599999999</c:v>
+                  <c:v>378.15069599999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>112.809288</c:v>
+                  <c:v>378.21060199999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>114.505745</c:v>
+                  <c:v>373.81872600000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>117.08515199999999</c:v>
+                  <c:v>368.45864899999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>119.773689</c:v>
+                  <c:v>371.83236699999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>122.01578499999999</c:v>
+                  <c:v>368.11923200000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>124.714241</c:v>
+                  <c:v>370.265289</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>123.553505</c:v>
+                  <c:v>373.53924599999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>125.180519</c:v>
+                  <c:v>370.61462399999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>124.47614299999999</c:v>
+                  <c:v>373.688965</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>128.04763800000001</c:v>
+                  <c:v>373.67895499999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>127.888893</c:v>
+                  <c:v>365.254547</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>127.75000799999999</c:v>
+                  <c:v>370.04571499999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>126.30999799999999</c:v>
+                  <c:v>371.96212800000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125.599998</c:v>
+                  <c:v>372.57104500000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>126.889999</c:v>
+                  <c:v>369.93588299999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>129.28999300000001</c:v>
+                  <c:v>372.850525</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>131.33999600000001</c:v>
+                  <c:v>373.88857999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>133.949997</c:v>
+                  <c:v>373.96844499999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>134.86000100000001</c:v>
+                  <c:v>373.379547</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>139.05999800000001</c:v>
+                  <c:v>374.58728000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>136.5</c:v>
+                  <c:v>375.34588600000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>131.13999899999999</c:v>
+                  <c:v>370.18542500000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>130.94000199999999</c:v>
+                  <c:v>369.91592400000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>132.020004</c:v>
+                  <c:v>367.26083399999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>133.58000200000001</c:v>
+                  <c:v>367.07119799999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>131.16000399999999</c:v>
+                  <c:v>373.99838299999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>130.88999899999999</c:v>
+                  <c:v>375.09637500000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>129.36999499999999</c:v>
+                  <c:v>382.063446</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>129.46000699999999</c:v>
+                  <c:v>383.92004400000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>133.11999499999999</c:v>
+                  <c:v>387.75295999999997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>131.60000600000001</c:v>
+                  <c:v>389.549622</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>131.38999899999999</c:v>
+                  <c:v>388.75109900000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>131.449997</c:v>
+                  <c:v>393.14297499999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>129.89999399999999</c:v>
+                  <c:v>397.93414300000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>133.58000200000001</c:v>
+                  <c:v>395.77810699999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>133.11999499999999</c:v>
+                  <c:v>398.16369600000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>134.029999</c:v>
+                  <c:v>401.81692500000003</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>136.25</c:v>
+                  <c:v>404.122681</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>142.05999800000001</c:v>
+                  <c:v>403.18441799999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>143.740005</c:v>
+                  <c:v>408.96371499999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>146.259995</c:v>
+                  <c:v>407.83581500000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>145.479996</c:v>
+                  <c:v>396.84613000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>145.949997</c:v>
+                  <c:v>403.03469799999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>143.679993</c:v>
+                  <c:v>410.46096799999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>146.279999</c:v>
+                  <c:v>404.90124500000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>142.66000399999999</c:v>
+                  <c:v>404.74151599999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>142.970001</c:v>
+                  <c:v>413.285706</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>146.300003</c:v>
+                  <c:v>413.34561200000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>145.270004</c:v>
+                  <c:v>419.77371199999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>146.53999300000001</c:v>
+                  <c:v>414.49349999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>141.58000200000001</c:v>
+                  <c:v>405.57000699999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>143.949997</c:v>
+                  <c:v>409.48998999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>147.179993</c:v>
+                  <c:v>406.55999800000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>141.51499899999999</c:v>
+                  <c:v>404.05999800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,8 +5614,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="308511744"/>
-        <c:axId val="318990592"/>
+        <c:axId val="304231936"/>
+        <c:axId val="304294144"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5924,277 +5924,277 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.25</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.76</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.25</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="0.00">
-                  <c:v>6.99</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="0.00">
-                  <c:v>7.63</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6216,11 +6216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="308512768"/>
-        <c:axId val="318991168"/>
+        <c:axId val="304233984"/>
+        <c:axId val="304294720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308511744"/>
+        <c:axId val="304231936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,7 +6264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318990592"/>
+        <c:crossAx val="304294144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6272,7 +6272,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318990592"/>
+        <c:axId val="304294144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6323,12 +6323,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308511744"/>
+        <c:crossAx val="304231936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318991168"/>
+        <c:axId val="304294720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6362,12 +6362,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308512768"/>
+        <c:crossAx val="304233984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="308512768"/>
+        <c:axId val="304233984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6377,7 +6377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318991168"/>
+        <c:crossAx val="304294720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7035,15 +7035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>116416</xdr:colOff>
+      <xdr:colOff>107156</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>11906</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7082,7 +7082,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E056F11F-8924-466B-9080-7F85CDCE6208}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E056F11F-8924-466B-9080-7F85CDCE6208}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7109,12 +7109,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07755</cdr:x>
-      <cdr:y>0.02564</cdr:y>
+      <cdr:x>0.15757</cdr:x>
+      <cdr:y>0.03163</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76772</cdr:x>
-      <cdr:y>0.15385</cdr:y>
+      <cdr:x>0.96589</cdr:x>
+      <cdr:y>0.16753</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'Stock Chart'!$E$1">
       <cdr:nvSpPr>
@@ -7123,8 +7123,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="208468" y="52916"/>
-          <a:ext cx="1855284" cy="264584"/>
+          <a:off x="420246" y="64031"/>
+          <a:ext cx="2155787" cy="275067"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7134,30 +7134,30 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:fld id="{FC458D2F-6B26-489F-84B0-D8770CF7AB6E}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Valero Energy Corporation</a:t>
+            <a:pPr algn="l"/>
+            <a:t>Microsoft Corporation</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65354</cdr:x>
+      <cdr:x>0.70245</cdr:x>
       <cdr:y>0.02056</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92913</cdr:x>
+      <cdr:x>0.97804</cdr:x>
       <cdr:y>0.16923</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'Stock Chart'!$F$1">
@@ -7167,8 +7167,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1756834" y="42430"/>
-          <a:ext cx="740833" cy="306820"/>
+          <a:off x="1880876" y="42431"/>
+          <a:ext cx="737916" cy="306817"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7187,7 +7187,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>110.72</a:t>
+            <a:pPr algn="r"/>
+            <a:t>404.06</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -7277,7 +7278,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Valero Energy Corporation</a:t>
+            <a:t>Microsoft Corporation</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400" b="1"/>
         </a:p>
@@ -7321,7 +7322,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="r"/>
-            <a:t>110.72</a:t>
+            <a:t>404.06</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400" b="1"/>
         </a:p>
@@ -7351,7 +7352,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E056F11F-8924-466B-9080-7F85CDCE6208}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E056F11F-8924-466B-9080-7F85CDCE6208}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7995,7 +7996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8006,8 +8007,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9048,30 +9049,30 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="97" t="str">
+        <v>255</v>
+      </c>
+      <c r="C1" s="88" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,13863)</f>
-        <v>Valero Energy Corporation</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+        <v>Microsoft Corporation</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="99" t="str">
+      <c r="H1" s="90" t="str">
         <f>"Industry Group = " &amp; [1]!RCHGetElementNumber(Ticker,850)</f>
-        <v>Industry Group = Oil and Gas - Refining and Marketing</v>
-      </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
+        <v>Industry Group = Computer - Software</v>
+      </c>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="93" t="str">
+      <c r="N1" s="83" t="str">
         <f>"Sector = "&amp; PROPER([1]!RCHGetElementNumber(Ticker,2152))</f>
-        <v>Sector = Energy</v>
-      </c>
-      <c r="O1" s="94"/>
+        <v>Sector = Software</v>
+      </c>
+      <c r="O1" s="84"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -9085,7 +9086,7 @@
       </c>
       <c r="C2" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,15)</f>
-        <v>146.88239999999999</v>
+        <v>404.06</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="85" t="s">
@@ -9093,22 +9094,22 @@
       </c>
       <c r="F2" s="85"/>
       <c r="G2" s="10"/>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="87"/>
       <c r="M2" s="6"/>
       <c r="N2" s="85" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="89" t="s">
+      <c r="Q2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="96"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -9117,7 +9118,7 @@
       </c>
       <c r="C3" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,17)</f>
-        <v>2.9324036000000002</v>
+        <v>-2.5</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
@@ -9125,7 +9126,7 @@
       </c>
       <c r="F3" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,814)</f>
-        <v>146.26</v>
+        <v>405.26</v>
       </c>
       <c r="G3" s="12"/>
       <c r="J3" s="12"/>
@@ -9134,7 +9135,7 @@
       </c>
       <c r="L3" s="13">
         <f>[1]!RCHGetElementNumber(Ticker,1243)</f>
-        <v>0.15479999999999999</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="7" t="s">
@@ -9144,14 +9145,14 @@
       <c r="P3" s="10"/>
       <c r="Q3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,853)</f>
-        <v>9/2023</v>
+        <v>3/2024</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="S3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,865)</f>
-        <v>12/2023</v>
+        <v>6/2024</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>10</v>
@@ -9164,7 +9165,7 @@
       </c>
       <c r="C4" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,18)</f>
-        <v>143.53</v>
+        <v>407.96</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="7" t="s">
@@ -9172,7 +9173,7 @@
       </c>
       <c r="F4" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,807)</f>
-        <v>148.97999999999999</v>
+        <v>407.09</v>
       </c>
       <c r="G4" s="12"/>
       <c r="J4" s="12"/>
@@ -9181,7 +9182,7 @@
       </c>
       <c r="L4" s="13">
         <f>[1]!RCHGetElementNumber(Ticker,1218)</f>
-        <v>1.4E-3</v>
+        <v>-3.9199999999999999E-2</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="7" t="s">
@@ -9189,7 +9190,7 @@
       </c>
       <c r="O4" s="18" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,950)</f>
-        <v>Dec 30, 2022</v>
+        <v>Jun 30, 2023</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" t="s">
@@ -9197,14 +9198,14 @@
       </c>
       <c r="R4" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,854)</f>
-        <v>5.46</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="S4" t="s">
         <v>15</v>
       </c>
       <c r="T4" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,866)</f>
-        <v>22.35</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9214,7 +9215,7 @@
       </c>
       <c r="C5" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,15)</f>
-        <v>146.88239999999999</v>
+        <v>404.06</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
@@ -9222,7 +9223,7 @@
       </c>
       <c r="F5" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,808)</f>
-        <v>151.01</v>
+        <v>410.11</v>
       </c>
       <c r="G5" s="12"/>
       <c r="J5" s="12"/>
@@ -9231,7 +9232,7 @@
       </c>
       <c r="L5" s="13">
         <f>[1]!RCHGetElementNumber(Ticker,1223)</f>
-        <v>0.1145</v>
+        <v>1.35E-2</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="7" t="s">
@@ -9239,7 +9240,7 @@
       </c>
       <c r="O5" s="18" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,951)</f>
-        <v>Jun 29, 2023</v>
+        <v>Dec 31, 2023</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" t="s">
@@ -9247,14 +9248,14 @@
       </c>
       <c r="R5" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,855)</f>
-        <v>8.7799999999999994</v>
+        <v>3.06</v>
       </c>
       <c r="S5" t="s">
         <v>20</v>
       </c>
       <c r="T5" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,867)</f>
-        <v>29.23</v>
+        <v>11.93</v>
       </c>
       <c r="Y5" s="20"/>
     </row>
@@ -9265,7 +9266,7 @@
       </c>
       <c r="C6" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,19)</f>
-        <v>148.28</v>
+        <v>408.27</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="7" t="s">
@@ -9273,7 +9274,7 @@
       </c>
       <c r="F6" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,809)</f>
-        <v>144.22999999999999</v>
+        <v>402.24</v>
       </c>
       <c r="G6" s="12"/>
       <c r="J6" s="12"/>
@@ -9282,7 +9283,7 @@
       </c>
       <c r="L6" s="13">
         <f>[1]!RCHGetElementNumber(Ticker,1228)</f>
-        <v>0.24129999999999999</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="7" t="s">
@@ -9290,7 +9291,7 @@
       </c>
       <c r="O6" s="18" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1285)</f>
-        <v>Oct 26, 2023</v>
+        <v>Apr 23, 2024- Apr 29, 2024</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" t="s">
@@ -9298,14 +9299,14 @@
       </c>
       <c r="R6" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,856)</f>
-        <v>7.63</v>
+        <v>2.81</v>
       </c>
       <c r="S6" t="s">
         <v>24</v>
       </c>
       <c r="T6" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,868)</f>
-        <v>26.38</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9315,7 +9316,7 @@
       </c>
       <c r="C7" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,15)</f>
-        <v>146.88239999999999</v>
+        <v>404.06</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="7" t="s">
@@ -9323,7 +9324,7 @@
       </c>
       <c r="F7" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,810)</f>
-        <v>141.51</v>
+        <v>400.41</v>
       </c>
       <c r="G7" s="12"/>
       <c r="J7" s="12"/>
@@ -9332,7 +9333,7 @@
       </c>
       <c r="L7" s="13">
         <f>[1]!RCHGetElementNumber(Ticker,1233)</f>
-        <v>0.36859999999999998</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="7" t="s">
@@ -9345,14 +9346,14 @@
       </c>
       <c r="R7" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,857)</f>
-        <v>7.14</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="S7" t="s">
         <v>28</v>
       </c>
       <c r="T7" s="15">
         <f>[1]!RCHGetElementNumber(Ticker,869)</f>
-        <v>29.16</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9362,7 +9363,7 @@
       </c>
       <c r="C8" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,21)</f>
-        <v>1924568</v>
+        <v>22296495</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="85" t="s">
@@ -9379,7 +9380,7 @@
       </c>
       <c r="O8" s="23">
         <f>[1]!RCHGetElementNumber(Ticker,952)</f>
-        <v>7.2099999999999997E-2</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" t="s">
@@ -9387,14 +9388,14 @@
       </c>
       <c r="R8" s="24">
         <f>[1]!RCHGetElementNumber(Ticker,858)</f>
-        <v>6.8599999999999994E-2</v>
+        <v>0.1469</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
       </c>
       <c r="T8" s="24">
         <f>[1]!RCHGetElementNumber(Ticker,870)</f>
-        <v>-9.5299999999999996E-2</v>
+        <v>0.1825</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9404,7 +9405,7 @@
       </c>
       <c r="C9" s="25">
         <f>[1]!RCHGetElementNumber(Ticker,980)</f>
-        <v>4730</v>
+        <v>22290</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="26" t="s">
@@ -9412,7 +9413,7 @@
       </c>
       <c r="F9" s="27">
         <f>[1]!RCHGetElementNumber(Ticker,2185)</f>
-        <v>0.76</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G9" s="12"/>
       <c r="J9" s="12"/>
@@ -9426,19 +9427,19 @@
       </c>
       <c r="O9" s="23">
         <f>[1]!RCHGetElementNumber(Ticker,953)</f>
-        <v>9.9099999999999994E-2</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,859)</f>
-        <v>12/2023</v>
+        <v>6/2024</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="S9" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,871)</f>
-        <v>12/2024</v>
+        <v>6/2025</v>
       </c>
       <c r="T9" s="15"/>
     </row>
@@ -9449,7 +9450,7 @@
       </c>
       <c r="C10" s="25">
         <f>[1]!RCHGetElementNumber(Ticker,979)</f>
-        <v>3710</v>
+        <v>25390</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="26" t="s">
@@ -9457,7 +9458,7 @@
       </c>
       <c r="F10" s="28">
         <f>[1]!RCHGetElementNumber(Ticker,975)</f>
-        <v>152.19999999999999</v>
+        <v>420.82</v>
       </c>
       <c r="G10" s="12"/>
       <c r="J10" s="12"/>
@@ -9466,7 +9467,7 @@
       </c>
       <c r="L10" s="29">
         <f>[1]!RCHGetElementNumber(Ticker,27)</f>
-        <v>153.6</v>
+        <v>422.9</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="7" t="s">
@@ -9479,14 +9480,14 @@
       </c>
       <c r="R10" s="15">
         <f>[1]!RCHGetElementNumber($B$1,860)</f>
-        <v>3.01</v>
+        <v>2.73</v>
       </c>
       <c r="S10" t="s">
         <v>15</v>
       </c>
       <c r="T10" s="15">
         <f>[1]!RCHGetElementNumber($B$1,872)</f>
-        <v>11.28</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9503,7 +9504,7 @@
       </c>
       <c r="F11" s="28">
         <f>[1]!RCHGetElementNumber(Ticker,976)</f>
-        <v>104.18</v>
+        <v>245.61</v>
       </c>
       <c r="G11" s="12"/>
       <c r="J11" s="12"/>
@@ -9512,7 +9513,7 @@
       </c>
       <c r="L11" s="31">
         <f>(L10-C2)/C2</f>
-        <v>4.5734546821130408E-2</v>
+        <v>4.6626738603177682E-2</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="7" t="s">
@@ -9520,7 +9521,7 @@
       </c>
       <c r="O11" s="23">
         <f>[1]!RCHGetElementNumber(Ticker,954)</f>
-        <v>0.15029999999999999</v>
+        <v>0.15190000000000001</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" t="s">
@@ -9528,14 +9529,14 @@
       </c>
       <c r="R11" s="15">
         <f t="array" ref="R11">[1]!RCHGetElementNumber($B$1,861)</f>
-        <v>5.15</v>
+        <v>3</v>
       </c>
       <c r="S11" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="15">
         <f>[1]!RCHGetElementNumber($B$1,873)</f>
-        <v>21.12</v>
+        <v>13.89</v>
       </c>
       <c r="Y11" s="20"/>
     </row>
@@ -9553,7 +9554,7 @@
       </c>
       <c r="F12" s="28">
         <f>[1]!RCHGetElementNumber(Ticker,977)</f>
-        <v>134</v>
+        <v>388.61</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="22"/>
@@ -9564,7 +9565,7 @@
       </c>
       <c r="L12" s="29">
         <f>[1]!RCHGetElementNumber(Ticker,849)</f>
-        <v>155.81</v>
+        <v>438.97</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="7" t="s">
@@ -9572,7 +9573,7 @@
       </c>
       <c r="O12" s="23">
         <f t="array" ref="O12">[1]!RCHGetElementNumber(Ticker,955)</f>
-        <v>0.44990000000000002</v>
+        <v>0.39169999999999999</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" t="s">
@@ -9580,14 +9581,14 @@
       </c>
       <c r="R12" s="15">
         <f>[1]!RCHGetElementNumber($B$1,862)</f>
-        <v>4.34</v>
+        <v>2.85</v>
       </c>
       <c r="S12" t="s">
         <v>24</v>
       </c>
       <c r="T12" s="15">
         <f>[1]!RCHGetElementNumber($B$1,874)</f>
-        <v>15.32</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9597,7 +9598,7 @@
       </c>
       <c r="F13" s="28">
         <f>[1]!RCHGetElementNumber(Ticker,978)</f>
-        <v>126.64</v>
+        <v>348.36</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="85" t="s">
@@ -9610,7 +9611,7 @@
       </c>
       <c r="L13" s="31">
         <f>(L12-C2)/C2</f>
-        <v>6.0780597266929276E-2</v>
+        <v>8.6398059694104898E-2</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="7" t="s">
@@ -9623,14 +9624,14 @@
       </c>
       <c r="R13" s="15">
         <f>[1]!RCHGetElementNumber($B$1,863)</f>
-        <v>8.4499999999999993</v>
+        <v>2.69</v>
       </c>
       <c r="S13" t="s">
         <v>28</v>
       </c>
       <c r="T13" s="15">
         <f>[1]!RCHGetElementNumber($B$1,875)</f>
-        <v>26.38</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9644,7 +9645,7 @@
       </c>
       <c r="I14" s="25">
         <f>[1]!RCHGetElementNumber(Ticker,981)</f>
-        <v>353130</v>
+        <v>7430000</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="35"/>
@@ -9655,7 +9656,7 @@
       </c>
       <c r="O14" s="37">
         <f>[1]!RCHGetElementNumber(Ticker,956)</f>
-        <v>151760000</v>
+        <v>227580000</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" t="s">
@@ -9663,14 +9664,14 @@
       </c>
       <c r="R14" s="24">
         <f>[1]!RCHGetElementNumber($B$1,864)</f>
-        <v>-0.4864</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
       </c>
       <c r="T14" s="24">
         <f>[1]!RCHGetElementNumber($B$1,876)</f>
-        <v>-0.41930000000000001</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="Y14" s="38" t="str">
         <f t="array" ref="Y14">[1]!RCHGetHTMLTable("https://www.zacks.com/stock/quote/TSLA/detailed-earning-estimates","Magnitude - Consensus Estimate Trend",1)</f>
@@ -9694,7 +9695,7 @@
       </c>
       <c r="I15" s="25">
         <f>[1]!RCHGetElementNumber(Ticker,982)</f>
-        <v>351300</v>
+        <v>7420000</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="85" t="s">
@@ -9707,7 +9708,7 @@
       </c>
       <c r="O15" s="40">
         <f>[1]!RCHGetElementNumber(Ticker,957)</f>
-        <v>406.32</v>
+        <v>30.61</v>
       </c>
       <c r="P15" s="10"/>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F16" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,2162)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="7" t="s">
@@ -9734,7 +9735,7 @@
       </c>
       <c r="I16" s="41">
         <f>[1]!RCHGetElementNumber(Ticker,983)</f>
-        <v>5.5999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="7" t="s">
@@ -9742,7 +9743,7 @@
       </c>
       <c r="L16" s="31">
         <f>[1]!RCHGetElementNumber(Ticker,2187)</f>
-        <v>-0.52</v>
+        <v>0.26</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="7" t="s">
@@ -9750,7 +9751,7 @@
       </c>
       <c r="O16" s="23">
         <f>[1]!RCHGetElementNumber(Ticker,958)</f>
-        <v>-0.34399999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="42" t="s">
@@ -9767,7 +9768,7 @@
       </c>
       <c r="C17" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,544)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="7" t="s">
@@ -9775,7 +9776,7 @@
       </c>
       <c r="F17" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,2159)</f>
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="7" t="s">
@@ -9783,7 +9784,7 @@
       </c>
       <c r="I17" s="41">
         <f>[1]!RCHGetElementNumber(Ticker,984)</f>
-        <v>0.81140000000000001</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="7" t="s">
@@ -9791,15 +9792,15 @@
       </c>
       <c r="L17" s="45">
         <f>[1]!RCHGetElementNumber(Ticker,2189)</f>
-        <v>-0.11</v>
+        <v>0.19</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="37" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,959)</f>
-        <v>19220000</v>
+        <v>N/A</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="46" t="s">
@@ -9809,7 +9810,7 @@
       <c r="S17" s="48"/>
       <c r="T17" s="49">
         <f>[1]!RCHGetElementNumber(Ticker,785)</f>
-        <v>4253555</v>
+        <v>24911810</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9819,7 +9820,7 @@
       </c>
       <c r="C18" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,545)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="7" t="s">
@@ -9827,7 +9828,7 @@
       </c>
       <c r="F18" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,2154)</f>
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="7" t="s">
@@ -9835,7 +9836,7 @@
       </c>
       <c r="I18" s="25">
         <f>[1]!RCHGetElementNumber(Ticker,985)</f>
-        <v>9990</v>
+        <v>49880</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="7" t="s">
@@ -9843,7 +9844,7 @@
       </c>
       <c r="L18" s="45">
         <f>[1]!RCHGetElementNumber(Ticker,2188)</f>
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="7" t="s">
@@ -9851,7 +9852,7 @@
       </c>
       <c r="O18" s="37">
         <f>[1]!RCHGetElementNumber(Ticker,960)</f>
-        <v>17600000</v>
+        <v>118430000</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="46" t="s">
@@ -9861,7 +9862,7 @@
       <c r="S18" s="48"/>
       <c r="T18" s="49">
         <f>[1]!RCHGetElementNumber(Ticker,786)</f>
-        <v>4237904</v>
+        <v>25211580</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9871,7 +9872,7 @@
       </c>
       <c r="C19" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,546)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="7" t="s">
@@ -9879,7 +9880,7 @@
       </c>
       <c r="F19" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,2155)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="7" t="s">
@@ -9887,7 +9888,7 @@
       </c>
       <c r="I19" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,986)</f>
-        <v>2.58</v>
+        <v>1.98</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="7" t="s">
@@ -9895,7 +9896,7 @@
       </c>
       <c r="L19" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,2165)</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="7" t="s">
@@ -9903,7 +9904,7 @@
       </c>
       <c r="O19" s="37">
         <f>[1]!RCHGetElementNumber(Ticker,961)</f>
-        <v>10900000</v>
+        <v>82540000</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="46" t="s">
@@ -9923,7 +9924,7 @@
       </c>
       <c r="C20" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,547)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="7" t="s">
@@ -9931,7 +9932,7 @@
       </c>
       <c r="F20" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,2156)</f>
-        <v>NS</v>
+        <v>MSFT</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="7" t="s">
@@ -9939,7 +9940,7 @@
       </c>
       <c r="I20" s="41">
         <f>[1]!RCHGetElementNumber(Ticker,987)</f>
-        <v>3.2300000000000002E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="7" t="s">
@@ -9947,7 +9948,7 @@
       </c>
       <c r="L20" s="31">
         <f>[1]!RCHGetElementNumber(Ticker,13895)</f>
-        <v>0.06</v>
+        <v>0.16159999999999999</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="7" t="s">
@@ -9955,7 +9956,7 @@
       </c>
       <c r="O20" s="40">
         <f>[1]!RCHGetElementNumber(Ticker,962)</f>
-        <v>29.04</v>
+        <v>11.07</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="46" t="s">
@@ -9975,7 +9976,7 @@
       </c>
       <c r="C21" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,548)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="35"/>
@@ -9986,7 +9987,7 @@
       </c>
       <c r="I21" s="25">
         <f>[1]!RCHGetElementNumber(Ticker,988)</f>
-        <v>11120</v>
+        <v>51390</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="7" t="s">
@@ -9994,7 +9995,7 @@
       </c>
       <c r="L21" s="31">
         <f>[1]!RCHGetElementNumber(Ticker,876)</f>
-        <v>-0.41930000000000001</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="7" t="s">
@@ -10002,7 +10003,7 @@
       </c>
       <c r="O21" s="23">
         <f>[1]!RCHGetElementNumber(Ticker,963)</f>
-        <v>-0.58599999999999997</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="46" t="s">
@@ -10012,7 +10013,7 @@
       <c r="S21" s="48"/>
       <c r="T21" s="49" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,794)</f>
-        <v>Increasing</v>
+        <v>Decreasing</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10055,7 +10056,7 @@
       </c>
       <c r="C23" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,550)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="7" t="s">
@@ -10063,13 +10064,13 @@
       </c>
       <c r="F23" s="29">
         <f>[1]!RCHGetElementNumber(Ticker,826)</f>
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="92"/>
+      <c r="I23" s="98"/>
       <c r="J23" s="6"/>
       <c r="K23" s="85" t="s">
         <v>101</v>
@@ -10081,7 +10082,7 @@
       </c>
       <c r="O23" s="37">
         <f>[1]!RCHGetElementNumber(Ticker,964)</f>
-        <v>5070000</v>
+        <v>80980000</v>
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="46" t="s">
@@ -10109,7 +10110,7 @@
       </c>
       <c r="F24" s="29">
         <f>[1]!RCHGetElementNumber(Ticker,824)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="53" t="s">
@@ -10117,15 +10118,15 @@
       </c>
       <c r="I24" s="54">
         <f>[1]!RCHGetElementNumber(Ticker,4924)</f>
-        <v>4.04</v>
+        <v>3</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="25" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,941)</f>
-        <v>50830000</v>
+        <v>3.02T</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="7" t="s">
@@ -10133,7 +10134,7 @@
       </c>
       <c r="O24" s="40">
         <f>[1]!RCHGetElementNumber(Ticker,965)</f>
-        <v>14.37</v>
+        <v>10.9</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="46" t="s">
@@ -10143,7 +10144,7 @@
       <c r="S24" s="48"/>
       <c r="T24" s="55">
         <f>[1]!RCHGetElementNumber(Ticker,815)</f>
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10153,7 +10154,7 @@
       </c>
       <c r="C25" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,552)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="56"/>
@@ -10163,15 +10164,15 @@
       </c>
       <c r="I25" s="41">
         <f>[1]!RCHGetElementNumber(Ticker,4925)</f>
-        <v>2.8500000000000001E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="25" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,942)</f>
-        <v>57080000</v>
+        <v>3.03T</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="7" t="s">
@@ -10179,7 +10180,7 @@
       </c>
       <c r="O25" s="37">
         <f>[1]!RCHGetElementNumber(Ticker,966)</f>
-        <v>11320000</v>
+        <v>111360000</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="46" t="s">
@@ -10189,7 +10190,7 @@
       <c r="S25" s="48"/>
       <c r="T25" s="55">
         <f>[1]!RCHGetElementNumber(Ticker,816)</f>
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10202,7 +10203,7 @@
       </c>
       <c r="I26" s="54">
         <f>[1]!RCHGetElementNumber(Ticker,4926)</f>
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="7" t="s">
@@ -10210,7 +10211,7 @@
       </c>
       <c r="L26" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,943)</f>
-        <v>4.96</v>
+        <v>36.76</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="7" t="s">
@@ -10218,7 +10219,7 @@
       </c>
       <c r="O26" s="58">
         <f>[1]!RCHGetElementNumber(Ticker,967)</f>
-        <v>0.40450000000000003</v>
+        <v>0.46739999999999998</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="46" t="s">
@@ -10228,7 +10229,7 @@
       <c r="S26" s="48"/>
       <c r="T26" s="55">
         <f>[1]!RCHGetElementNumber(Ticker,817)</f>
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10248,7 +10249,7 @@
       </c>
       <c r="I27" s="41">
         <f>[1]!RCHGetElementNumber(Ticker,4927)</f>
-        <v>2.7799999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="7" t="s">
@@ -10256,7 +10257,7 @@
       </c>
       <c r="L27" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,944)</f>
-        <v>10.26</v>
+        <v>34.97</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="7" t="s">
@@ -10264,7 +10265,7 @@
       </c>
       <c r="O27" s="58">
         <f>[1]!RCHGetElementNumber(Ticker,968)</f>
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="46" t="s">
@@ -10274,7 +10275,7 @@
       <c r="S27" s="48"/>
       <c r="T27" s="55">
         <f>[1]!RCHGetElementNumber(Ticker,818)</f>
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10284,7 +10285,7 @@
       </c>
       <c r="C28" s="7" t="str">
         <f>[1]!RCHGetElementNumber($B$1,848)</f>
-        <v>3-Hold</v>
+        <v>2-Buy</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="7" t="s">
@@ -10292,7 +10293,7 @@
       </c>
       <c r="F28" s="45">
         <f>[1]!RCHGetElementNumber(Ticker,1261)</f>
-        <v>0.60919999999999996</v>
+        <v>0.47149999999999997</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="53" t="s">
@@ -10300,15 +10301,15 @@
       </c>
       <c r="I28" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,4928)</f>
-        <v>4.67</v>
+        <v>0.98</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,945)</f>
-        <v>N/A</v>
+        <v>2.37</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="7" t="s">
@@ -10316,7 +10317,7 @@
       </c>
       <c r="O28" s="40">
         <f>[1]!RCHGetElementNumber(Ticker,969)</f>
-        <v>73.209999999999994</v>
+        <v>32.06</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="46" t="s">
@@ -10326,7 +10327,7 @@
       <c r="S28" s="48"/>
       <c r="T28" s="55">
         <f>[1]!RCHGetElementNumber(Ticker,819)</f>
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10336,7 +10337,7 @@
       </c>
       <c r="C29" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,847)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="7" t="s">
@@ -10344,7 +10345,7 @@
       </c>
       <c r="F29" s="45">
         <f>[1]!RCHGetElementNumber(Ticker,1266)</f>
-        <v>0.6169</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="53" t="s">
@@ -10352,7 +10353,7 @@
       </c>
       <c r="I29" s="41">
         <f>[1]!RCHGetElementNumber(Ticker,4929)</f>
-        <v>0.13769999999999999</v>
+        <v>0.25230000000000002</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="7" t="s">
@@ -10360,7 +10361,7 @@
       </c>
       <c r="L29" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,946)</f>
-        <v>0.34</v>
+        <v>13.34</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="7" t="s">
@@ -10375,7 +10376,7 @@
       <c r="S29" s="48"/>
       <c r="T29" s="55">
         <f>[1]!RCHGetElementNumber(Ticker,820)</f>
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10385,7 +10386,7 @@
       </c>
       <c r="C30" s="8" t="str">
         <f>[1]!RCHGetElementNumber($B$1,844)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="7" t="s">
@@ -10393,7 +10394,7 @@
       </c>
       <c r="F30" s="45">
         <f>[1]!RCHGetElementNumber(Ticker,1271)</f>
-        <v>0.61950000000000005</v>
+        <v>0.55410000000000004</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="53" t="s">
@@ -10401,7 +10402,7 @@
       </c>
       <c r="I30" s="59" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,991)</f>
-        <v>Sep 04, 2023</v>
+        <v>Mar 14, 2024</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="7" t="s">
@@ -10409,7 +10410,7 @@
       </c>
       <c r="L30" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,947)</f>
-        <v>1.97</v>
+        <v>12.68</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="7" t="s">
@@ -10417,7 +10418,7 @@
       </c>
       <c r="O30" s="37">
         <f>[1]!RCHGetElementNumber(Ticker,970)</f>
-        <v>10820000</v>
+        <v>102650000</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="46" t="s">
@@ -10427,7 +10428,7 @@
       <c r="S30" s="48"/>
       <c r="T30" s="51" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,833)</f>
-        <v>Medium</v>
+        <v>Low</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10437,7 +10438,7 @@
       </c>
       <c r="C31" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,845)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="7" t="s">
@@ -10445,7 +10446,7 @@
       </c>
       <c r="F31" s="45">
         <f>[1]!RCHGetElementNumber(Ticker,1276)</f>
-        <v>0.58720000000000006</v>
+        <v>0.58279999999999998</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="53" t="s">
@@ -10453,7 +10454,7 @@
       </c>
       <c r="I31" s="59" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,992)</f>
-        <v>Aug 01, 2023</v>
+        <v>Feb 14, 2024</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="7" t="s">
@@ -10461,7 +10462,7 @@
       </c>
       <c r="L31" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,948)</f>
-        <v>0.36</v>
+        <v>13.31</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="7" t="s">
@@ -10469,14 +10470,14 @@
       </c>
       <c r="O31" s="37">
         <f>[1]!RCHGetElementNumber(Ticker,971)</f>
-        <v>6600000</v>
+        <v>58680000</v>
       </c>
       <c r="P31" s="10"/>
-      <c r="Q31" s="86" t="s">
+      <c r="Q31" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="R31" s="87"/>
-      <c r="S31" s="88"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="94"/>
       <c r="T31" s="51" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,834)</f>
         <v>Medium</v>
@@ -10489,7 +10490,7 @@
       </c>
       <c r="C32" s="8" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,846)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="7" t="s">
@@ -10497,7 +10498,7 @@
       </c>
       <c r="F32" s="45">
         <f>[1]!RCHGetElementNumber(Ticker,1281)</f>
-        <v>0.5514</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="53" t="s">
@@ -10505,7 +10506,7 @@
       </c>
       <c r="I32" s="59" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,993)</f>
-        <v>1094:1000</v>
+        <v>2:1</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="7" t="s">
@@ -10513,7 +10514,7 @@
       </c>
       <c r="L32" s="17">
         <f>[1]!RCHGetElementNumber(Ticker,949)</f>
-        <v>3.19</v>
+        <v>25.04</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="56"/>
@@ -10526,7 +10527,7 @@
       </c>
       <c r="C33" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,851)</f>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="56"/>
@@ -10537,7 +10538,7 @@
       </c>
       <c r="I33" s="59" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,940)</f>
-        <v>May 01, 2013</v>
+        <v>Feb 18, 2003</v>
       </c>
       <c r="J33" s="10"/>
     </row>
@@ -10555,7 +10556,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="str">
         <f>[1]!RCHGetElementNumber($B$1,852)</f>
-        <v>Top 34% (82 out of 244)</v>
+        <v>Top 31% (77 out of 250)</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="50"/>
@@ -10569,7 +10570,7 @@
       </c>
       <c r="C36" s="8">
         <f>[1]!RCHGetElementNumber(Ticker,13870)</f>
-        <v>0.91</v>
+        <v>2.16</v>
       </c>
       <c r="D36" s="50"/>
       <c r="G36" s="6"/>
@@ -10631,18 +10632,18 @@
       <c r="K60"/>
     </row>
     <row r="61" spans="11:12" ht="14.65" x14ac:dyDescent="0.4">
-      <c r="K61" s="81" t="s">
+      <c r="K61" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="L61" s="82"/>
+      <c r="L61" s="100"/>
     </row>
     <row r="62" spans="11:12" ht="14.65" x14ac:dyDescent="0.4">
       <c r="K62" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L62" s="32" t="str">
         <f>[1]!RCHGetElementNumber(Ticker, 804)</f>
-        <v>Bullish</v>
+        <v>Bearish</v>
       </c>
     </row>
     <row r="63" spans="11:12" ht="14.65" x14ac:dyDescent="0.4">
@@ -10739,10 +10740,10 @@
       </c>
     </row>
     <row r="72" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="K72" s="81" t="s">
+      <c r="K72" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="L72" s="82"/>
+      <c r="L72" s="100"/>
     </row>
     <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
@@ -10859,10 +10860,10 @@
       <c r="F82" s="32" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="K82" s="81" t="s">
+      <c r="K82" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="L82" s="82"/>
+      <c r="L82" s="100"/>
     </row>
     <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83" s="1" t="s">
@@ -10966,10 +10967,10 @@
       <c r="F91" s="32" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="K91" s="81" t="s">
+      <c r="K91" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="L91" s="82"/>
+      <c r="L91" s="100"/>
     </row>
     <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
@@ -10978,10 +10979,10 @@
       <c r="F92" s="32" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="K92" s="83" t="s">
+      <c r="K92" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="L92" s="84"/>
+      <c r="L92" s="102"/>
     </row>
     <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E93" s="1" t="s">
@@ -11281,6 +11282,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="K2:L2"/>
@@ -11290,21 +11306,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K82:L82"/>
   </mergeCells>
   <conditionalFormatting sqref="L93:L112">
     <cfRule type="colorScale" priority="11">
@@ -11371,7 +11372,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11386,25 +11387,25 @@
     <row r="1" spans="1:22" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="str">
         <f>Ticker</f>
-        <v>VLO</v>
+        <v>MSFT</v>
       </c>
       <c r="B1" s="76"/>
       <c r="D1" s="72" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,13863)</f>
-        <v>Valero Energy Corporation</v>
+        <v>Microsoft Corporation</v>
       </c>
       <c r="E1" s="72" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,13863)</f>
-        <v>Valero Energy Corporation</v>
+        <v>Microsoft Corporation</v>
       </c>
       <c r="F1" s="72">
         <f ca="1">F32</f>
-        <v>110.724998</v>
-      </c>
-      <c r="H1" s="101"/>
+        <v>404.05999800000001</v>
+      </c>
+      <c r="H1" s="81"/>
       <c r="J1" s="72">
         <f ca="1">MIN(E:E)</f>
-        <v>109.75</v>
+        <v>369.01001000000002</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.65" x14ac:dyDescent="0.4">
@@ -11432,7 +11433,7 @@
         <v>238</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.65" x14ac:dyDescent="0.4">
@@ -11441,23 +11442,23 @@
       </c>
       <c r="B4" s="78">
         <f ca="1"/>
-        <v>45159</v>
+        <v>45299</v>
       </c>
       <c r="C4" s="72">
         <f ca="1"/>
-        <v>112.040001</v>
+        <v>369.29998799999998</v>
       </c>
       <c r="D4" s="72">
         <f ca="1"/>
-        <v>112.480003</v>
+        <v>375.20001200000002</v>
       </c>
       <c r="E4" s="72">
         <f ca="1"/>
-        <v>111.019997</v>
+        <v>369.01001000000002</v>
       </c>
       <c r="F4" s="72">
         <f ca="1"/>
-        <v>111.939438</v>
+        <v>373.99838299999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.65" x14ac:dyDescent="0.4">
@@ -11466,23 +11467,23 @@
       </c>
       <c r="B5" s="78">
         <f ca="1"/>
-        <v>45160</v>
+        <v>45300</v>
       </c>
       <c r="C5" s="72">
         <f ca="1"/>
-        <v>112.150002</v>
+        <v>372.01001000000002</v>
       </c>
       <c r="D5" s="72">
         <f ca="1"/>
-        <v>113.050003</v>
+        <v>375.98998999999998</v>
       </c>
       <c r="E5" s="72">
         <f ca="1"/>
-        <v>110.839996</v>
+        <v>371.19000199999999</v>
       </c>
       <c r="F5" s="72">
         <f ca="1"/>
-        <v>111.57970400000001</v>
+        <v>375.09637500000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.65" x14ac:dyDescent="0.4">
@@ -11491,23 +11492,23 @@
       </c>
       <c r="B6" s="78">
         <f ca="1"/>
-        <v>45161</v>
+        <v>45301</v>
       </c>
       <c r="C6" s="72">
         <f ca="1"/>
-        <v>111.5</v>
+        <v>376.36999500000002</v>
       </c>
       <c r="D6" s="72">
         <f ca="1"/>
-        <v>113.760002</v>
+        <v>384.17001299999998</v>
       </c>
       <c r="E6" s="72">
         <f ca="1"/>
-        <v>111.5</v>
+        <v>376.32000699999998</v>
       </c>
       <c r="F6" s="72">
         <f ca="1"/>
-        <v>113.38840500000001</v>
+        <v>382.063446</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -11516,23 +11517,23 @@
       </c>
       <c r="B7" s="78">
         <f ca="1"/>
-        <v>45162</v>
+        <v>45302</v>
       </c>
       <c r="C7" s="72">
         <f ca="1"/>
-        <v>113.199997</v>
+        <v>386</v>
       </c>
       <c r="D7" s="72">
         <f ca="1"/>
-        <v>113.959999</v>
+        <v>390.67999300000002</v>
       </c>
       <c r="E7" s="72">
         <f ca="1"/>
-        <v>111.019997</v>
+        <v>380.38000499999998</v>
       </c>
       <c r="F7" s="72">
         <f ca="1"/>
-        <v>110.96015199999999</v>
+        <v>383.92004400000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -11541,29 +11542,30 @@
       </c>
       <c r="B8" s="78">
         <f ca="1"/>
-        <v>45163</v>
+        <v>45303</v>
       </c>
       <c r="C8" s="72">
         <f ca="1"/>
-        <v>111.449997</v>
+        <v>385.48998999999998</v>
       </c>
       <c r="D8" s="72">
         <f ca="1"/>
-        <v>112.370003</v>
+        <v>388.67999300000002</v>
       </c>
       <c r="E8" s="72">
         <f ca="1"/>
-        <v>110.220001</v>
+        <v>384.64999399999999</v>
       </c>
       <c r="F8" s="72">
         <f ca="1"/>
-        <v>111.889481</v>
+        <v>387.75295999999997</v>
       </c>
       <c r="U8" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="V8" s="79" t="s">
-        <v>240</v>
+      <c r="V8" s="103" t="str">
+        <f>A1</f>
+        <v>MSFT</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -11572,34 +11574,34 @@
       </c>
       <c r="B9" s="78">
         <f ca="1"/>
-        <v>45166</v>
+        <v>45307</v>
       </c>
       <c r="C9" s="72">
         <f ca="1"/>
-        <v>112.550003</v>
+        <v>393.66000400000001</v>
       </c>
       <c r="D9" s="72">
         <f ca="1"/>
-        <v>114.279999</v>
+        <v>394.02999899999998</v>
       </c>
       <c r="E9" s="72">
         <f ca="1"/>
-        <v>112.150002</v>
+        <v>387.61999500000002</v>
       </c>
       <c r="F9" s="72">
         <f ca="1"/>
-        <v>113.878044</v>
+        <v>389.549622</v>
       </c>
       <c r="G9" s="72">
         <f ca="1">AVERAGE(F4:F9)</f>
-        <v>112.27253733333335</v>
+        <v>382.06347166666666</v>
       </c>
       <c r="U9" s="77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V9" s="80">
         <f ca="1">V10-60</f>
-        <v>45138</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -11608,34 +11610,34 @@
       </c>
       <c r="B10" s="78">
         <f ca="1"/>
-        <v>45167</v>
+        <v>45308</v>
       </c>
       <c r="C10" s="72">
         <f ca="1"/>
-        <v>113.66999800000001</v>
+        <v>387.98001099999999</v>
       </c>
       <c r="D10" s="72">
         <f ca="1"/>
-        <v>115.66999800000001</v>
+        <v>390.10998499999999</v>
       </c>
       <c r="E10" s="72">
         <f ca="1"/>
-        <v>112.91999800000001</v>
+        <v>384.80999800000001</v>
       </c>
       <c r="F10" s="72">
         <f ca="1"/>
-        <v>115.247063</v>
+        <v>388.75109900000001</v>
       </c>
       <c r="G10" s="72">
         <f t="shared" ref="G10:G32" ca="1" si="0">AVERAGE(F5:F10)</f>
-        <v>112.82380816666667</v>
+        <v>384.52225766666669</v>
       </c>
       <c r="U10" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V10" s="80">
         <f ca="1">TODAY()</f>
-        <v>45198</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -11644,33 +11646,33 @@
       </c>
       <c r="B11" s="78">
         <f ca="1"/>
-        <v>45168</v>
+        <v>45309</v>
       </c>
       <c r="C11" s="72">
         <f ca="1"/>
-        <v>114.849998</v>
+        <v>391.72000100000002</v>
       </c>
       <c r="D11" s="72">
         <f ca="1"/>
-        <v>115.58000199999999</v>
+        <v>393.98998999999998</v>
       </c>
       <c r="E11" s="72">
         <f ca="1"/>
-        <v>113.949997</v>
+        <v>390.11999500000002</v>
       </c>
       <c r="F11" s="72">
         <f ca="1"/>
-        <v>114.227791</v>
+        <v>393.14297499999998</v>
       </c>
       <c r="G11" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.265156</v>
+        <v>387.53002433333336</v>
       </c>
       <c r="U11" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="V11" s="79" t="s">
         <v>243</v>
-      </c>
-      <c r="V11" s="79" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -11679,33 +11681,33 @@
       </c>
       <c r="B12" s="78">
         <f ca="1"/>
-        <v>45169</v>
+        <v>45310</v>
       </c>
       <c r="C12" s="72">
         <f ca="1"/>
-        <v>114.58000199999999</v>
+        <v>395.76001000000002</v>
       </c>
       <c r="D12" s="72">
         <f ca="1"/>
-        <v>114.94000200000001</v>
+        <v>398.67001299999998</v>
       </c>
       <c r="E12" s="72">
         <f ca="1"/>
-        <v>113.80999799999999</v>
+        <v>393.5</v>
       </c>
       <c r="F12" s="72">
         <f ca="1"/>
-        <v>114.377686</v>
+        <v>397.93414300000001</v>
       </c>
       <c r="G12" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.43003616666668</v>
+        <v>390.1751405</v>
       </c>
       <c r="U12" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V12" s="79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -11714,30 +11716,30 @@
       </c>
       <c r="B13" s="78">
         <f ca="1"/>
-        <v>45170</v>
+        <v>45313</v>
       </c>
       <c r="C13" s="72">
         <f ca="1"/>
-        <v>115.019997</v>
+        <v>400.01998900000001</v>
       </c>
       <c r="D13" s="72">
         <f ca="1"/>
-        <v>115.459999</v>
+        <v>400.61999500000002</v>
       </c>
       <c r="E13" s="72">
         <f ca="1"/>
-        <v>113.529999</v>
+        <v>393.58999599999999</v>
       </c>
       <c r="F13" s="72">
         <f ca="1"/>
-        <v>114.15784499999999</v>
+        <v>395.77810699999998</v>
       </c>
       <c r="G13" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.962985</v>
+        <v>392.15148433333337</v>
       </c>
       <c r="U13" s="77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V13" s="79">
         <v>1</v>
@@ -11749,30 +11751,30 @@
       </c>
       <c r="B14" s="78">
         <f ca="1"/>
-        <v>45174</v>
+        <v>45314</v>
       </c>
       <c r="C14" s="72">
         <f ca="1"/>
-        <v>113.69000200000001</v>
+        <v>395.75</v>
       </c>
       <c r="D14" s="72">
         <f ca="1"/>
-        <v>114.19000200000001</v>
+        <v>399.38000499999998</v>
       </c>
       <c r="E14" s="72">
         <f ca="1"/>
-        <v>112.30999799999999</v>
+        <v>393.92999300000002</v>
       </c>
       <c r="F14" s="72">
         <f ca="1"/>
-        <v>112.79882000000001</v>
+        <v>398.16369600000002</v>
       </c>
       <c r="G14" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>114.11454149999999</v>
+        <v>393.88660699999997</v>
       </c>
       <c r="U14" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V14" s="79">
         <v>1</v>
@@ -11784,30 +11786,30 @@
       </c>
       <c r="B15" s="78">
         <f ca="1"/>
-        <v>45175</v>
+        <v>45315</v>
       </c>
       <c r="C15" s="72">
         <f ca="1"/>
-        <v>112.849998</v>
+        <v>401.540009</v>
       </c>
       <c r="D15" s="72">
         <f ca="1"/>
-        <v>114.07</v>
+        <v>405.63000499999998</v>
       </c>
       <c r="E15" s="72">
         <f ca="1"/>
-        <v>111.93</v>
+        <v>400.45001200000002</v>
       </c>
       <c r="F15" s="72">
         <f ca="1"/>
-        <v>112.598969</v>
+        <v>401.81692500000003</v>
       </c>
       <c r="G15" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.90136233333334</v>
+        <v>395.93115749999998</v>
       </c>
       <c r="U15" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V15" s="79"/>
     </row>
@@ -11817,30 +11819,30 @@
       </c>
       <c r="B16" s="78">
         <f ca="1"/>
-        <v>45176</v>
+        <v>45316</v>
       </c>
       <c r="C16" s="72">
         <f ca="1"/>
-        <v>112.220001</v>
+        <v>404.32000699999998</v>
       </c>
       <c r="D16" s="72">
         <f ca="1"/>
-        <v>113.150002</v>
+        <v>407.01001000000002</v>
       </c>
       <c r="E16" s="72">
         <f ca="1"/>
-        <v>111.410004</v>
+        <v>402.52999899999998</v>
       </c>
       <c r="F16" s="72">
         <f ca="1"/>
-        <v>111.70961</v>
+        <v>404.122681</v>
       </c>
       <c r="G16" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.31178683333333</v>
+        <v>398.49308783333328</v>
       </c>
       <c r="U16" s="77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V16" s="79"/>
     </row>
@@ -11850,27 +11852,27 @@
       </c>
       <c r="B17" s="78">
         <f ca="1"/>
-        <v>45177</v>
+        <v>45317</v>
       </c>
       <c r="C17" s="72">
         <f ca="1"/>
-        <v>111.5</v>
+        <v>404.36999500000002</v>
       </c>
       <c r="D17" s="72">
         <f ca="1"/>
-        <v>112.029999</v>
+        <v>406.17001299999998</v>
       </c>
       <c r="E17" s="72">
         <f ca="1"/>
-        <v>111.220001</v>
+        <v>402.42999300000002</v>
       </c>
       <c r="F17" s="72">
         <f ca="1"/>
-        <v>111.639664</v>
+        <v>403.18441799999999</v>
       </c>
       <c r="G17" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>112.88043233333333</v>
+        <v>400.1666616666667</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -11879,27 +11881,27 @@
       </c>
       <c r="B18" s="78">
         <f ca="1"/>
-        <v>45180</v>
+        <v>45320</v>
       </c>
       <c r="C18" s="72">
         <f ca="1"/>
-        <v>112.25</v>
+        <v>406.05999800000001</v>
       </c>
       <c r="D18" s="72">
         <f ca="1"/>
-        <v>114.300003</v>
+        <v>409.98001099999999</v>
       </c>
       <c r="E18" s="72">
         <f ca="1"/>
-        <v>112.120003</v>
+        <v>404.32998700000002</v>
       </c>
       <c r="F18" s="72">
         <f ca="1"/>
-        <v>114.177834</v>
+        <v>408.96371499999998</v>
       </c>
       <c r="G18" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>112.84712366666666</v>
+        <v>402.00492366666668</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -11908,27 +11910,27 @@
       </c>
       <c r="B19" s="78">
         <f ca="1"/>
-        <v>45181</v>
+        <v>45321</v>
       </c>
       <c r="C19" s="72">
         <f ca="1"/>
-        <v>114.25</v>
+        <v>412.26001000000002</v>
       </c>
       <c r="D19" s="72">
         <f ca="1"/>
-        <v>116.82</v>
+        <v>413.04998799999998</v>
       </c>
       <c r="E19" s="72">
         <f ca="1"/>
-        <v>114</v>
+        <v>406.45001200000002</v>
       </c>
       <c r="F19" s="72">
         <f ca="1"/>
-        <v>114.917297</v>
+        <v>407.83581500000003</v>
       </c>
       <c r="G19" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>112.973699</v>
+        <v>404.01454166666667</v>
       </c>
       <c r="U19" s="75"/>
     </row>
@@ -11938,27 +11940,27 @@
       </c>
       <c r="B20" s="78">
         <f ca="1"/>
-        <v>45182</v>
+        <v>45322</v>
       </c>
       <c r="C20" s="72">
         <f ca="1"/>
-        <v>114.69000200000001</v>
+        <v>406.959991</v>
       </c>
       <c r="D20" s="72">
         <f ca="1"/>
-        <v>115.360001</v>
+        <v>415.32000699999998</v>
       </c>
       <c r="E20" s="72">
         <f ca="1"/>
-        <v>112.639999</v>
+        <v>397.209991</v>
       </c>
       <c r="F20" s="72">
         <f ca="1"/>
-        <v>113.518303</v>
+        <v>396.84613000000002</v>
       </c>
       <c r="G20" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.09361283333332</v>
+        <v>403.79494733333331</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -11967,27 +11969,27 @@
       </c>
       <c r="B21" s="78">
         <f ca="1"/>
-        <v>45183</v>
+        <v>45323</v>
       </c>
       <c r="C21" s="72">
         <f ca="1"/>
-        <v>114.370003</v>
+        <v>401.82998700000002</v>
       </c>
       <c r="D21" s="72">
         <f ca="1"/>
-        <v>117.209999</v>
+        <v>408</v>
       </c>
       <c r="E21" s="72">
         <f ca="1"/>
-        <v>114.32</v>
+        <v>401.79998799999998</v>
       </c>
       <c r="F21" s="72">
         <f ca="1"/>
-        <v>115.566833</v>
+        <v>403.03469799999999</v>
       </c>
       <c r="G21" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.58825683333333</v>
+        <v>403.99790949999993</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -11996,27 +11998,27 @@
       </c>
       <c r="B22" s="78">
         <f ca="1"/>
-        <v>45184</v>
+        <v>45324</v>
       </c>
       <c r="C22" s="72">
         <f ca="1"/>
-        <v>115.41999800000001</v>
+        <v>403.80999800000001</v>
       </c>
       <c r="D22" s="72">
         <f ca="1"/>
-        <v>115.910004</v>
+        <v>412.64999399999999</v>
       </c>
       <c r="E22" s="72">
         <f ca="1"/>
-        <v>114.199997</v>
+        <v>403.55999800000001</v>
       </c>
       <c r="F22" s="72">
         <f ca="1"/>
-        <v>115.406944</v>
+        <v>410.46096799999998</v>
       </c>
       <c r="G22" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>114.20447916666666</v>
+        <v>405.05429066666665</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12025,27 +12027,27 @@
       </c>
       <c r="B23" s="78">
         <f ca="1"/>
-        <v>45187</v>
+        <v>45327</v>
       </c>
       <c r="C23" s="72">
         <f ca="1"/>
-        <v>115.779999</v>
+        <v>409.89999399999999</v>
       </c>
       <c r="D23" s="72">
         <f ca="1"/>
-        <v>117.43</v>
+        <v>411.16000400000001</v>
       </c>
       <c r="E23" s="72">
         <f ca="1"/>
-        <v>114.91999800000001</v>
+        <v>403.98998999999998</v>
       </c>
       <c r="F23" s="72">
         <f ca="1"/>
-        <v>116.48616800000001</v>
+        <v>404.90124500000002</v>
       </c>
       <c r="G23" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>115.01222983333332</v>
+        <v>405.34042849999997</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12054,27 +12056,27 @@
       </c>
       <c r="B24" s="78">
         <f ca="1"/>
-        <v>45188</v>
+        <v>45328</v>
       </c>
       <c r="C24" s="72">
         <f ca="1"/>
-        <v>116.019997</v>
+        <v>405.88000499999998</v>
       </c>
       <c r="D24" s="72">
         <f ca="1"/>
-        <v>116.68</v>
+        <v>407.97000100000002</v>
       </c>
       <c r="E24" s="72">
         <f ca="1"/>
-        <v>115.220001</v>
+        <v>402.91000400000001</v>
       </c>
       <c r="F24" s="72">
         <f ca="1"/>
-        <v>116.12642700000001</v>
+        <v>404.74151599999999</v>
       </c>
       <c r="G24" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>115.33699533333333</v>
+        <v>404.63672866666667</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12083,27 +12085,27 @@
       </c>
       <c r="B25" s="78">
         <f ca="1"/>
-        <v>45189</v>
+        <v>45329</v>
       </c>
       <c r="C25" s="72">
         <f ca="1"/>
-        <v>116.529999</v>
+        <v>407.44000199999999</v>
       </c>
       <c r="D25" s="72">
         <f ca="1"/>
-        <v>117.66999800000001</v>
+        <v>414.29998799999998</v>
       </c>
       <c r="E25" s="72">
         <f ca="1"/>
-        <v>114.82</v>
+        <v>407.39999399999999</v>
       </c>
       <c r="F25" s="72">
         <f ca="1"/>
-        <v>114.767403</v>
+        <v>413.285706</v>
       </c>
       <c r="G25" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>115.31201300000002</v>
+        <v>405.54504383333341</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12112,27 +12114,27 @@
       </c>
       <c r="B26" s="78">
         <f ca="1"/>
-        <v>45190</v>
+        <v>45330</v>
       </c>
       <c r="C26" s="72">
         <f ca="1"/>
-        <v>113.949997</v>
+        <v>414.04998799999998</v>
       </c>
       <c r="D26" s="72">
         <f ca="1"/>
-        <v>114.339996</v>
+        <v>415.55999800000001</v>
       </c>
       <c r="E26" s="72">
         <f ca="1"/>
-        <v>112.05999799999999</v>
+        <v>412.52999899999998</v>
       </c>
       <c r="F26" s="72">
         <f ca="1"/>
-        <v>112.908745</v>
+        <v>413.34561200000002</v>
       </c>
       <c r="G26" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>115.21042</v>
+        <v>408.29495750000001</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12141,27 +12143,27 @@
       </c>
       <c r="B27" s="78">
         <f ca="1"/>
-        <v>45191</v>
+        <v>45331</v>
       </c>
       <c r="C27" s="72">
         <f ca="1"/>
-        <v>112.900002</v>
+        <v>415.25</v>
       </c>
       <c r="D27" s="72">
         <f ca="1"/>
-        <v>113.199997</v>
+        <v>420.82000699999998</v>
       </c>
       <c r="E27" s="72">
         <f ca="1"/>
-        <v>111.07</v>
+        <v>415.08999599999999</v>
       </c>
       <c r="F27" s="72">
         <f ca="1"/>
-        <v>111.16999800000001</v>
+        <v>419.77371199999999</v>
       </c>
       <c r="G27" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>114.47761416666667</v>
+        <v>411.08479316666671</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12170,27 +12172,27 @@
       </c>
       <c r="B28" s="78">
         <f ca="1"/>
-        <v>45194</v>
+        <v>45334</v>
       </c>
       <c r="C28" s="72">
         <f ca="1"/>
-        <v>110.720001</v>
+        <v>420.55999800000001</v>
       </c>
       <c r="D28" s="72">
         <f ca="1"/>
-        <v>111.959999</v>
+        <v>420.73998999999998</v>
       </c>
       <c r="E28" s="72">
         <f ca="1"/>
-        <v>110.629997</v>
+        <v>414.75</v>
       </c>
       <c r="F28" s="72">
         <f ca="1"/>
-        <v>111.720001</v>
+        <v>414.49349999999998</v>
       </c>
       <c r="G28" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>113.86312366666668</v>
+        <v>411.75688183333341</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12199,27 +12201,27 @@
       </c>
       <c r="B29" s="78">
         <f ca="1"/>
-        <v>45195</v>
+        <v>45335</v>
       </c>
       <c r="C29" s="72">
         <f ca="1"/>
-        <v>111</v>
+        <v>404.94000199999999</v>
       </c>
       <c r="D29" s="72">
         <f ca="1"/>
-        <v>111.94000200000001</v>
+        <v>410.07000699999998</v>
       </c>
       <c r="E29" s="72">
         <f ca="1"/>
-        <v>109.75</v>
+        <v>403.39001500000001</v>
       </c>
       <c r="F29" s="72">
         <f ca="1"/>
-        <v>109.93</v>
+        <v>405.57000699999998</v>
       </c>
       <c r="G29" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>112.77042899999999</v>
+        <v>411.86834216666665</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12228,27 +12230,27 @@
       </c>
       <c r="B30" s="78">
         <f ca="1"/>
-        <v>45196</v>
+        <v>45336</v>
       </c>
       <c r="C30" s="72">
         <f ca="1"/>
-        <v>110.629997</v>
+        <v>408.07000699999998</v>
       </c>
       <c r="D30" s="72">
         <f ca="1"/>
-        <v>111.610001</v>
+        <v>409.83999599999999</v>
       </c>
       <c r="E30" s="72">
         <f ca="1"/>
-        <v>110.150002</v>
+        <v>404.57000699999998</v>
       </c>
       <c r="F30" s="72">
         <f ca="1"/>
-        <v>110.889999</v>
+        <v>409.48998999999998</v>
       </c>
       <c r="G30" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>111.89769100000001</v>
+        <v>412.65975449999996</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12257,27 +12259,27 @@
       </c>
       <c r="B31" s="78">
         <f ca="1"/>
-        <v>45197</v>
+        <v>45337</v>
       </c>
       <c r="C31" s="72">
         <f ca="1"/>
-        <v>111.05999799999999</v>
+        <v>408.14001500000001</v>
       </c>
       <c r="D31" s="72">
         <f ca="1"/>
-        <v>112.989998</v>
+        <v>409.13000499999998</v>
       </c>
       <c r="E31" s="72">
         <f ca="1"/>
-        <v>110.83000199999999</v>
+        <v>404.290009</v>
       </c>
       <c r="F31" s="72">
         <f ca="1"/>
-        <v>112.339996</v>
+        <v>406.55999800000001</v>
       </c>
       <c r="G31" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>111.49312316666668</v>
+        <v>411.5388031666667</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="14.65" x14ac:dyDescent="0.4">
@@ -12286,27 +12288,27 @@
       </c>
       <c r="B32" s="78">
         <f ca="1"/>
-        <v>45198</v>
+        <v>45338</v>
       </c>
       <c r="C32" s="72">
         <f ca="1"/>
-        <v>112.629997</v>
+        <v>407.959991</v>
       </c>
       <c r="D32" s="72">
         <f ca="1"/>
-        <v>112.760002</v>
+        <v>408.290009</v>
       </c>
       <c r="E32" s="72">
         <f ca="1"/>
-        <v>109.910004</v>
+        <v>403.44000199999999</v>
       </c>
       <c r="F32" s="72">
         <f ca="1"/>
-        <v>110.724998</v>
+        <v>404.05999800000001</v>
       </c>
       <c r="G32" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>111.12916533333333</v>
+        <v>409.99120083333338</v>
       </c>
     </row>
   </sheetData>
@@ -12335,30 +12337,30 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>Ticker</f>
-        <v>VLO</v>
-      </c>
-      <c r="B1" s="102"/>
+        <v>MSFT</v>
+      </c>
+      <c r="B1" s="82"/>
       <c r="D1" s="69" t="str">
         <f>Ticker</f>
-        <v>VLO</v>
+        <v>MSFT</v>
       </c>
       <c r="E1" s="69"/>
       <c r="G1" t="str">
         <f t="array" ref="G1">[1]!RCHGetElementNumber(Ticker,13863)</f>
-        <v>Valero Energy Corporation</v>
+        <v>Microsoft Corporation</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" t="s">
         <v>253</v>
-      </c>
-      <c r="M3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -12393,19 +12395,19 @@
       </c>
       <c r="D6" s="60">
         <f t="array" ref="D6">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",C$4,"Magnitude - Consensus Estimate Trend",,,,$A6)</f>
-        <v>7.63</v>
+        <v>2.81</v>
       </c>
       <c r="E6" s="60">
         <f t="array" ref="E6">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",D$4,"Magnitude - Consensus Estimate Trend",,,,$A6)</f>
-        <v>4.34</v>
+        <v>2.85</v>
       </c>
       <c r="F6" s="60">
         <f t="array" ref="F6">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",E$4,"Magnitude - Consensus Estimate Trend",,,,$A6)</f>
-        <v>26.38</v>
+        <v>11.6</v>
       </c>
       <c r="G6" s="60">
         <f t="array" ref="G6">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",F$4,"Magnitude - Consensus Estimate Trend",,,,$A6)</f>
-        <v>15.32</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -12418,19 +12420,19 @@
       </c>
       <c r="D7" s="60">
         <f t="array" ref="D7">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",C$4,"Magnitude - Consensus Estimate Trend",,,,$A7)</f>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
       <c r="E7" s="60">
         <f t="array" ref="E7">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",D$4,"Magnitude - Consensus Estimate Trend",,,,$A7)</f>
-        <v>4.25</v>
+        <v>2.85</v>
       </c>
       <c r="F7" s="60">
         <f t="array" ref="F7">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",E$4,"Magnitude - Consensus Estimate Trend",,,,$A7)</f>
-        <v>25.32</v>
+        <v>11.6</v>
       </c>
       <c r="G7" s="60">
         <f t="array" ref="G7">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",F$4,"Magnitude - Consensus Estimate Trend",,,,$A7)</f>
-        <v>14.75</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -12443,19 +12445,19 @@
       </c>
       <c r="D8" s="60">
         <f t="array" ref="D8">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",C$4,"Magnitude - Consensus Estimate Trend",,,,$A8)</f>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
       <c r="E8" s="60">
         <f t="array" ref="E8">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",D$4,"Magnitude - Consensus Estimate Trend",,,,$A8)</f>
-        <v>4</v>
+        <v>2.77</v>
       </c>
       <c r="F8" s="60">
         <f t="array" ref="F8">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",E$4,"Magnitude - Consensus Estimate Trend",,,,$A8)</f>
-        <v>24.16</v>
+        <v>11.14</v>
       </c>
       <c r="G8" s="60">
         <f t="array" ref="G8">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",F$4,"Magnitude - Consensus Estimate Trend",,,,$A8)</f>
-        <v>13.71</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -12468,19 +12470,19 @@
       </c>
       <c r="D9" s="60">
         <f t="array" ref="D9">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",C$4,"Magnitude - Consensus Estimate Trend",,,,$A9)</f>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
       <c r="E9" s="60">
         <f t="array" ref="E9">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",D$4,"Magnitude - Consensus Estimate Trend",,,,$A9)</f>
-        <v>3.67</v>
+        <v>2.76</v>
       </c>
       <c r="F9" s="60">
         <f t="array" ref="F9">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",E$4,"Magnitude - Consensus Estimate Trend",,,,$A9)</f>
-        <v>22.06</v>
+        <v>11.13</v>
       </c>
       <c r="G9" s="60">
         <f t="array" ref="G9">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",F$4,"Magnitude - Consensus Estimate Trend",,,,$A9)</f>
-        <v>13.61</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -12493,19 +12495,19 @@
       </c>
       <c r="D10" s="60">
         <f t="array" ref="D10">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",C$4,"Magnitude - Consensus Estimate Trend",,,,$A10)</f>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
       <c r="E10" s="60">
         <f t="array" ref="E10">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",D$4,"Magnitude - Consensus Estimate Trend",,,,$A10)</f>
-        <v>3.8</v>
+        <v>2.76</v>
       </c>
       <c r="F10" s="60">
         <f t="array" ref="F10">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",E$4,"Magnitude - Consensus Estimate Trend",,,,$A10)</f>
-        <v>22.25</v>
+        <v>11.13</v>
       </c>
       <c r="G10" s="60">
         <f t="array" ref="G10">[1]!RCHGetTableCell("https://www.zacks.com/stock/quote/" &amp; A1&amp;"/detailed-earning-estimates",F$4,"Magnitude - Consensus Estimate Trend",,,,$A10)</f>
-        <v>13.92</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12543,27 +12545,27 @@
       </c>
       <c r="B29" s="71">
         <f ca="1"/>
-        <v>45068</v>
+        <v>45208</v>
       </c>
       <c r="C29" s="72">
         <f ca="1"/>
-        <v>110.720001</v>
+        <v>324.75</v>
       </c>
       <c r="D29" s="72">
         <f ca="1"/>
-        <v>114.010002</v>
+        <v>330.29998799999998</v>
       </c>
       <c r="E29" s="72">
         <f ca="1"/>
-        <v>110.44000200000001</v>
+        <v>323.17999300000002</v>
       </c>
       <c r="F29" s="72">
         <f ca="1"/>
-        <v>111.896584</v>
+        <v>328.54437300000001</v>
       </c>
       <c r="G29">
         <f>D10</f>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12572,27 +12574,27 @@
       </c>
       <c r="B30" s="71">
         <f ca="1"/>
-        <v>45069</v>
+        <v>45209</v>
       </c>
       <c r="C30" s="72">
         <f ca="1"/>
-        <v>114.82</v>
+        <v>330.959991</v>
       </c>
       <c r="D30" s="72">
         <f ca="1"/>
-        <v>115.349998</v>
+        <v>331.10000600000001</v>
       </c>
       <c r="E30" s="72">
         <f ca="1"/>
-        <v>112.389999</v>
+        <v>327.67001299999998</v>
       </c>
       <c r="F30" s="72">
         <f ca="1"/>
-        <v>111.608879</v>
+        <v>327.119934</v>
       </c>
       <c r="G30">
         <f>G29</f>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12601,27 +12603,27 @@
       </c>
       <c r="B31" s="71">
         <f ca="1"/>
-        <v>45070</v>
+        <v>45210</v>
       </c>
       <c r="C31" s="72">
         <f ca="1"/>
-        <v>113.650002</v>
+        <v>331.209991</v>
       </c>
       <c r="D31" s="72">
         <f ca="1"/>
-        <v>114.93</v>
+        <v>332.82000699999998</v>
       </c>
       <c r="E31" s="72">
         <f ca="1"/>
-        <v>111.57</v>
+        <v>329.14001500000001</v>
       </c>
       <c r="F31" s="72">
         <f ca="1"/>
-        <v>113.880737</v>
+        <v>331.13433800000001</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31:G58" si="0">G30</f>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12630,27 +12632,27 @@
       </c>
       <c r="B32" s="71">
         <f ca="1"/>
-        <v>45071</v>
+        <v>45211</v>
       </c>
       <c r="C32" s="72">
         <f ca="1"/>
-        <v>113.150002</v>
+        <v>330.57000699999998</v>
       </c>
       <c r="D32" s="72">
         <f ca="1"/>
-        <v>113.860001</v>
+        <v>333.63000499999998</v>
       </c>
       <c r="E32" s="72">
         <f ca="1"/>
-        <v>111.269997</v>
+        <v>328.72000100000002</v>
       </c>
       <c r="F32" s="72">
         <f ca="1"/>
-        <v>112.28349300000001</v>
+        <v>329.87918100000002</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12659,27 +12661,27 @@
       </c>
       <c r="B33" s="71">
         <f ca="1"/>
-        <v>45072</v>
+        <v>45212</v>
       </c>
       <c r="C33" s="72">
         <f ca="1"/>
-        <v>114.260002</v>
+        <v>332.38000499999998</v>
       </c>
       <c r="D33" s="72">
         <f ca="1"/>
-        <v>114.75</v>
+        <v>333.82998700000002</v>
       </c>
       <c r="E33" s="72">
         <f ca="1"/>
-        <v>112.66999800000001</v>
+        <v>326.35998499999999</v>
       </c>
       <c r="F33" s="72">
         <f ca="1"/>
-        <v>112.918419</v>
+        <v>326.46246300000001</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12688,27 +12690,27 @@
       </c>
       <c r="B34" s="71">
         <f ca="1"/>
-        <v>45076</v>
+        <v>45215</v>
       </c>
       <c r="C34" s="72">
         <f ca="1"/>
-        <v>111.779999</v>
+        <v>331.04998799999998</v>
       </c>
       <c r="D34" s="72">
         <f ca="1"/>
-        <v>112.480003</v>
+        <v>336.14001500000001</v>
       </c>
       <c r="E34" s="72">
         <f ca="1"/>
-        <v>110.25</v>
+        <v>330.60000600000001</v>
       </c>
       <c r="F34" s="72">
         <f ca="1"/>
-        <v>110.775536</v>
+        <v>331.353455</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12717,27 +12719,27 @@
       </c>
       <c r="B35" s="71">
         <f ca="1"/>
-        <v>45077</v>
+        <v>45216</v>
       </c>
       <c r="C35" s="72">
         <f ca="1"/>
-        <v>109.410004</v>
+        <v>329.58999599999999</v>
       </c>
       <c r="D35" s="72">
         <f ca="1"/>
-        <v>109.989998</v>
+        <v>333.459991</v>
       </c>
       <c r="E35" s="72">
         <f ca="1"/>
-        <v>106.790001</v>
+        <v>327.41000400000001</v>
       </c>
       <c r="F35" s="72">
         <f ca="1"/>
-        <v>106.192123</v>
+        <v>330.77572600000002</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12746,27 +12748,27 @@
       </c>
       <c r="B36" s="71">
         <f ca="1"/>
-        <v>45078</v>
+        <v>45217</v>
       </c>
       <c r="C36" s="72">
         <f ca="1"/>
-        <v>107.18</v>
+        <v>332.48998999999998</v>
       </c>
       <c r="D36" s="72">
         <f ca="1"/>
-        <v>107.989998</v>
+        <v>335.58999599999999</v>
       </c>
       <c r="E36" s="72">
         <f ca="1"/>
-        <v>105.660004</v>
+        <v>328.29998799999998</v>
       </c>
       <c r="F36" s="72">
         <f ca="1"/>
-        <v>105.090919</v>
+        <v>328.83325200000002</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12775,27 +12777,27 @@
       </c>
       <c r="B37" s="71">
         <f ca="1"/>
-        <v>45079</v>
+        <v>45218</v>
       </c>
       <c r="C37" s="72">
         <f ca="1"/>
-        <v>107.860001</v>
+        <v>332.14999399999999</v>
       </c>
       <c r="D37" s="72">
         <f ca="1"/>
-        <v>110.010002</v>
+        <v>336.88000499999998</v>
       </c>
       <c r="E37" s="72">
         <f ca="1"/>
-        <v>106.860001</v>
+        <v>330.91000400000001</v>
       </c>
       <c r="F37" s="72">
         <f ca="1"/>
-        <v>108.40445699999999</v>
+        <v>330.03857399999998</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12804,27 +12806,27 @@
       </c>
       <c r="B38" s="71">
         <f ca="1"/>
-        <v>45082</v>
+        <v>45219</v>
       </c>
       <c r="C38" s="72">
         <f ca="1"/>
-        <v>110.519997</v>
+        <v>331.72000100000002</v>
       </c>
       <c r="D38" s="72">
         <f ca="1"/>
-        <v>110.519997</v>
+        <v>331.92001299999998</v>
       </c>
       <c r="E38" s="72">
         <f ca="1"/>
-        <v>105.80999799999999</v>
+        <v>325.45001200000002</v>
       </c>
       <c r="F38" s="72">
         <f ca="1"/>
-        <v>106.53935199999999</v>
+        <v>325.406586</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12833,27 +12835,27 @@
       </c>
       <c r="B39" s="71">
         <f ca="1"/>
-        <v>45083</v>
+        <v>45222</v>
       </c>
       <c r="C39" s="72">
         <f ca="1"/>
-        <v>105.800003</v>
+        <v>325.47000100000002</v>
       </c>
       <c r="D39" s="72">
         <f ca="1"/>
-        <v>109.41999800000001</v>
+        <v>332.73001099999999</v>
       </c>
       <c r="E39" s="72">
         <f ca="1"/>
-        <v>105.75</v>
+        <v>324.39001500000001</v>
       </c>
       <c r="F39" s="72">
         <f ca="1"/>
-        <v>108.40445699999999</v>
+        <v>328.04629499999999</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
@@ -12862,520 +12864,520 @@
       </c>
       <c r="B40" s="71">
         <f ca="1"/>
-        <v>45084</v>
+        <v>45223</v>
       </c>
       <c r="C40" s="72">
         <f ca="1"/>
-        <v>109.55999799999999</v>
+        <v>331.29998799999998</v>
       </c>
       <c r="D40" s="72">
         <f ca="1"/>
-        <v>113.709999</v>
+        <v>331.83999599999999</v>
       </c>
       <c r="E40" s="72">
         <f ca="1"/>
-        <v>108.43</v>
+        <v>327.60000600000001</v>
       </c>
       <c r="F40" s="72">
         <f ca="1"/>
-        <v>112.620796</v>
+        <v>329.25161700000001</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="70">
         <v>-78</v>
       </c>
       <c r="B41" s="71">
         <f ca="1"/>
-        <v>45085</v>
+        <v>45224</v>
       </c>
       <c r="C41" s="72">
         <f ca="1"/>
-        <v>113.089996</v>
+        <v>345.01998900000001</v>
       </c>
       <c r="D41" s="72">
         <f ca="1"/>
-        <v>114.370003</v>
+        <v>346.20001200000002</v>
       </c>
       <c r="E41" s="72">
         <f ca="1"/>
-        <v>110.449997</v>
+        <v>337.61999500000002</v>
       </c>
       <c r="F41" s="72">
         <f ca="1"/>
-        <v>111.54935500000001</v>
+        <v>339.352417</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>-77</v>
       </c>
       <c r="B42" s="71">
         <f ca="1"/>
-        <v>45086</v>
+        <v>45225</v>
       </c>
       <c r="C42" s="72">
         <f ca="1"/>
-        <v>112.910004</v>
+        <v>340.540009</v>
       </c>
       <c r="D42" s="72">
         <f ca="1"/>
-        <v>113.610001</v>
+        <v>341.63000499999998</v>
       </c>
       <c r="E42" s="72">
         <f ca="1"/>
-        <v>111.089996</v>
+        <v>326.94000199999999</v>
       </c>
       <c r="F42" s="72">
         <f ca="1"/>
-        <v>112.491829</v>
+        <v>326.62185699999998</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>-76</v>
       </c>
       <c r="B43" s="71">
         <f ca="1"/>
-        <v>45089</v>
+        <v>45226</v>
       </c>
       <c r="C43" s="72">
         <f ca="1"/>
-        <v>111.489998</v>
+        <v>330.42999300000002</v>
       </c>
       <c r="D43" s="72">
         <f ca="1"/>
-        <v>114.41999800000001</v>
+        <v>336.72000100000002</v>
       </c>
       <c r="E43" s="72">
         <f ca="1"/>
-        <v>111.220001</v>
+        <v>328.39999399999999</v>
       </c>
       <c r="F43" s="72">
         <f ca="1"/>
-        <v>112.18428</v>
+        <v>328.534424</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>-75</v>
       </c>
       <c r="B44" s="71">
         <f ca="1"/>
-        <v>45090</v>
+        <v>45229</v>
       </c>
       <c r="C44" s="72">
         <f ca="1"/>
-        <v>114.989998</v>
+        <v>333.41000400000001</v>
       </c>
       <c r="D44" s="72">
         <f ca="1"/>
-        <v>116.68</v>
+        <v>339.45001200000002</v>
       </c>
       <c r="E44" s="72">
         <f ca="1"/>
-        <v>113.040001</v>
+        <v>331.82998700000002</v>
       </c>
       <c r="F44" s="72">
         <f ca="1"/>
-        <v>112.18428</v>
+        <v>336.005402</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="70">
         <v>-74</v>
       </c>
       <c r="B45" s="71">
         <f ca="1"/>
-        <v>45091</v>
+        <v>45230</v>
       </c>
       <c r="C45" s="72">
         <f ca="1"/>
-        <v>114.32</v>
+        <v>338.85000600000001</v>
       </c>
       <c r="D45" s="72">
         <f ca="1"/>
-        <v>114.75</v>
+        <v>339</v>
       </c>
       <c r="E45" s="72">
         <f ca="1"/>
-        <v>110.760002</v>
+        <v>334.69000199999999</v>
       </c>
       <c r="F45" s="72">
         <f ca="1"/>
-        <v>110.944183</v>
+        <v>336.80230699999998</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>-73</v>
       </c>
       <c r="B46" s="71">
         <f ca="1"/>
-        <v>45092</v>
+        <v>45231</v>
       </c>
       <c r="C46" s="72">
         <f ca="1"/>
-        <v>111.709999</v>
+        <v>339.790009</v>
       </c>
       <c r="D46" s="72">
         <f ca="1"/>
-        <v>114.379997</v>
+        <v>347.42001299999998</v>
       </c>
       <c r="E46" s="72">
         <f ca="1"/>
-        <v>111.610001</v>
+        <v>339.64999399999999</v>
       </c>
       <c r="F46" s="72">
         <f ca="1"/>
-        <v>113.126755</v>
+        <v>344.731537</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>-72</v>
       </c>
       <c r="B47" s="71">
         <f ca="1"/>
-        <v>45093</v>
+        <v>45232</v>
       </c>
       <c r="C47" s="72">
         <f ca="1"/>
-        <v>114.540001</v>
+        <v>347.23998999999998</v>
       </c>
       <c r="D47" s="72">
         <f ca="1"/>
-        <v>114.889999</v>
+        <v>348.82998700000002</v>
       </c>
       <c r="E47" s="72">
         <f ca="1"/>
-        <v>113.290001</v>
+        <v>344.76998900000001</v>
       </c>
       <c r="F47" s="72">
         <f ca="1"/>
-        <v>113.305328</v>
+        <v>346.97283900000002</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>-71</v>
       </c>
       <c r="B48" s="71">
         <f ca="1"/>
-        <v>45097</v>
+        <v>45233</v>
       </c>
       <c r="C48" s="72">
         <f ca="1"/>
-        <v>114.16999800000001</v>
+        <v>349.63000499999998</v>
       </c>
       <c r="D48" s="72">
         <f ca="1"/>
-        <v>114.260002</v>
+        <v>354.39001500000001</v>
       </c>
       <c r="E48" s="72">
         <f ca="1"/>
-        <v>110.349998</v>
+        <v>347.32998700000002</v>
       </c>
       <c r="F48" s="72">
         <f ca="1"/>
-        <v>110.08107800000001</v>
+        <v>351.43548600000003</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="70">
         <v>-70</v>
       </c>
       <c r="B49" s="71">
         <f ca="1"/>
-        <v>45098</v>
+        <v>45236</v>
       </c>
       <c r="C49" s="72">
         <f ca="1"/>
-        <v>109.839996</v>
+        <v>353.45001200000002</v>
       </c>
       <c r="D49" s="72">
         <f ca="1"/>
-        <v>112.790001</v>
+        <v>357.540009</v>
       </c>
       <c r="E49" s="72">
         <f ca="1"/>
-        <v>109.400002</v>
+        <v>353.35000600000001</v>
       </c>
       <c r="F49" s="72">
         <f ca="1"/>
-        <v>110.73584700000001</v>
+        <v>355.151093</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>-69</v>
       </c>
       <c r="B50" s="71">
         <f ca="1"/>
-        <v>45099</v>
+        <v>45237</v>
       </c>
       <c r="C50" s="72">
         <f ca="1"/>
-        <v>110.18</v>
+        <v>359.39999399999999</v>
       </c>
       <c r="D50" s="72">
         <f ca="1"/>
-        <v>111.230003</v>
+        <v>362.459991</v>
       </c>
       <c r="E50" s="72">
         <f ca="1"/>
-        <v>108.279999</v>
+        <v>357.63000499999998</v>
       </c>
       <c r="F50" s="72">
         <f ca="1"/>
-        <v>109.515587</v>
+        <v>359.13562000000002</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>-68</v>
       </c>
       <c r="B51" s="71">
         <f ca="1"/>
-        <v>45100</v>
+        <v>45238</v>
       </c>
       <c r="C51" s="72">
         <f ca="1"/>
-        <v>108.739998</v>
+        <v>361.67999300000002</v>
       </c>
       <c r="D51" s="72">
         <f ca="1"/>
-        <v>112.879997</v>
+        <v>363.86999500000002</v>
       </c>
       <c r="E51" s="72">
         <f ca="1"/>
-        <v>108.68</v>
+        <v>360.54998799999998</v>
       </c>
       <c r="F51" s="72">
         <f ca="1"/>
-        <v>110.41838799999999</v>
+        <v>361.79528800000003</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>-67</v>
       </c>
       <c r="B52" s="71">
         <f ca="1"/>
-        <v>45103</v>
+        <v>45239</v>
       </c>
       <c r="C52" s="72">
         <f ca="1"/>
-        <v>111.370003</v>
+        <v>362.29998799999998</v>
       </c>
       <c r="D52" s="72">
         <f ca="1"/>
-        <v>113.91999800000001</v>
+        <v>364.790009</v>
       </c>
       <c r="E52" s="72">
         <f ca="1"/>
-        <v>111.139999</v>
+        <v>360.35998499999999</v>
       </c>
       <c r="F52" s="72">
         <f ca="1"/>
-        <v>112.094994</v>
+        <v>359.294983</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="70">
         <v>-66</v>
       </c>
       <c r="B53" s="71">
         <f ca="1"/>
-        <v>45104</v>
+        <v>45240</v>
       </c>
       <c r="C53" s="72">
         <f ca="1"/>
-        <v>113.209999</v>
+        <v>361.48998999999998</v>
       </c>
       <c r="D53" s="72">
         <f ca="1"/>
-        <v>116.07</v>
+        <v>370.10000600000001</v>
       </c>
       <c r="E53" s="72">
         <f ca="1"/>
-        <v>112.040001</v>
+        <v>361.07000699999998</v>
       </c>
       <c r="F53" s="72">
         <f ca="1"/>
-        <v>114.436302</v>
+        <v>368.24026500000002</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>-65</v>
       </c>
       <c r="B54" s="71">
         <f ca="1"/>
-        <v>45105</v>
+        <v>45243</v>
       </c>
       <c r="C54" s="72">
         <f ca="1"/>
-        <v>115.05999799999999</v>
+        <v>368.22000100000002</v>
       </c>
       <c r="D54" s="72">
         <f ca="1"/>
-        <v>115.82</v>
+        <v>368.47000100000002</v>
       </c>
       <c r="E54" s="72">
         <f ca="1"/>
-        <v>113.720001</v>
+        <v>365.89999399999999</v>
       </c>
       <c r="F54" s="72">
         <f ca="1"/>
-        <v>114.773613</v>
+        <v>365.26181000000003</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>-64</v>
       </c>
       <c r="B55" s="71">
         <f ca="1"/>
-        <v>45106</v>
+        <v>45244</v>
       </c>
       <c r="C55" s="72">
         <f ca="1"/>
-        <v>115.839996</v>
+        <v>371.01001000000002</v>
       </c>
       <c r="D55" s="72">
         <f ca="1"/>
-        <v>117.050003</v>
+        <v>371.95001200000002</v>
       </c>
       <c r="E55" s="72">
         <f ca="1"/>
-        <v>115.459999</v>
+        <v>367.35000600000001</v>
       </c>
       <c r="F55" s="72">
         <f ca="1"/>
-        <v>115.686317</v>
+        <v>368.83789100000001</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>-63</v>
       </c>
       <c r="B56" s="71">
         <f ca="1"/>
-        <v>45107</v>
+        <v>45245</v>
       </c>
       <c r="C56" s="72">
         <f ca="1"/>
-        <v>116.519997</v>
+        <v>371.27999899999998</v>
       </c>
       <c r="D56" s="72">
         <f ca="1"/>
-        <v>117.650002</v>
+        <v>373.13000499999998</v>
       </c>
       <c r="E56" s="72">
         <f ca="1"/>
-        <v>115.110001</v>
+        <v>367.10998499999999</v>
       </c>
       <c r="F56" s="72">
         <f ca="1"/>
-        <v>116.370857</v>
+        <v>368.98767099999998</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.65" x14ac:dyDescent="0.4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="70">
         <v>-62</v>
       </c>
       <c r="B57" s="71">
         <f ca="1"/>
-        <v>45110</v>
+        <v>45246</v>
       </c>
       <c r="C57" s="72">
         <f ca="1"/>
-        <v>118.32</v>
+        <v>370.959991</v>
       </c>
       <c r="D57" s="72">
         <f ca="1"/>
-        <v>118.849998</v>
+        <v>376.35000600000001</v>
       </c>
       <c r="E57" s="72">
         <f ca="1"/>
-        <v>117.32</v>
+        <v>370.17999300000002</v>
       </c>
       <c r="F57" s="72">
         <f ca="1"/>
-        <v>116.499825</v>
+        <v>375.47567700000002</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -13384,27 +13386,27 @@
       </c>
       <c r="B58" s="71">
         <f ca="1"/>
-        <v>45112</v>
+        <v>45247</v>
       </c>
       <c r="C58" s="72">
         <f ca="1"/>
-        <v>117.870003</v>
+        <v>373.60998499999999</v>
       </c>
       <c r="D58" s="72">
         <f ca="1"/>
-        <v>117.989998</v>
+        <v>374.36999500000002</v>
       </c>
       <c r="E58" s="72">
         <f ca="1"/>
-        <v>115.959999</v>
+        <v>367</v>
       </c>
       <c r="F58" s="72">
         <f ca="1"/>
-        <v>115.825211</v>
+        <v>369.167328</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -13413,27 +13415,27 @@
       </c>
       <c r="B59" s="71">
         <f ca="1"/>
-        <v>45113</v>
+        <v>45250</v>
       </c>
       <c r="C59" s="72">
         <f ca="1"/>
-        <v>115.599998</v>
+        <v>371.22000100000002</v>
       </c>
       <c r="D59" s="72">
         <f ca="1"/>
-        <v>115.989998</v>
+        <v>378.86999500000002</v>
       </c>
       <c r="E59" s="72">
         <f ca="1"/>
-        <v>112.629997</v>
+        <v>371</v>
       </c>
       <c r="F59" s="72">
         <f ca="1"/>
-        <v>112.561272</v>
+        <v>376.74331699999999</v>
       </c>
       <c r="G59">
         <f>D9</f>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -13442,27 +13444,27 @@
       </c>
       <c r="B60" s="71">
         <f ca="1"/>
-        <v>45114</v>
+        <v>45251</v>
       </c>
       <c r="C60" s="72">
         <f ca="1"/>
-        <v>113.389999</v>
+        <v>375.67001299999998</v>
       </c>
       <c r="D60" s="72">
         <f ca="1"/>
-        <v>116.639999</v>
+        <v>376.22000100000002</v>
       </c>
       <c r="E60" s="72">
         <f ca="1"/>
-        <v>112.849998</v>
+        <v>371.11999500000002</v>
       </c>
       <c r="F60" s="72">
         <f ca="1"/>
-        <v>113.970024</v>
+        <v>372.38137799999998</v>
       </c>
       <c r="G60">
         <f>G59</f>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -13471,27 +13473,27 @@
       </c>
       <c r="B61" s="71">
         <f ca="1"/>
-        <v>45117</v>
+        <v>45252</v>
       </c>
       <c r="C61" s="72">
         <f ca="1"/>
-        <v>114.040001</v>
+        <v>378</v>
       </c>
       <c r="D61" s="72">
         <f ca="1"/>
-        <v>115.18</v>
+        <v>379.790009</v>
       </c>
       <c r="E61" s="72">
         <f ca="1"/>
-        <v>112.160004</v>
+        <v>374.97000100000002</v>
       </c>
       <c r="F61" s="72">
         <f ca="1"/>
-        <v>111.718002</v>
+        <v>377.152557</v>
       </c>
       <c r="G61">
         <f t="shared" ref="G61:G88" si="1">G60</f>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -13500,27 +13502,27 @@
       </c>
       <c r="B62" s="71">
         <f ca="1"/>
-        <v>45118</v>
+        <v>45254</v>
       </c>
       <c r="C62" s="72">
         <f ca="1"/>
-        <v>113.209999</v>
+        <v>377.32998700000002</v>
       </c>
       <c r="D62" s="72">
         <f ca="1"/>
-        <v>115.980003</v>
+        <v>377.97000100000002</v>
       </c>
       <c r="E62" s="72">
         <f ca="1"/>
-        <v>112.589996</v>
+        <v>375.14001500000001</v>
       </c>
       <c r="F62" s="72">
         <f ca="1"/>
-        <v>115.031548</v>
+        <v>376.73330700000002</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -13529,27 +13531,27 @@
       </c>
       <c r="B63" s="71">
         <f ca="1"/>
-        <v>45119</v>
+        <v>45257</v>
       </c>
       <c r="C63" s="72">
         <f ca="1"/>
-        <v>116.989998</v>
+        <v>376.77999899999998</v>
       </c>
       <c r="D63" s="72">
         <f ca="1"/>
-        <v>117.900002</v>
+        <v>380.64001500000001</v>
       </c>
       <c r="E63" s="72">
         <f ca="1"/>
-        <v>114.639999</v>
+        <v>376.20001200000002</v>
       </c>
       <c r="F63" s="72">
         <f ca="1"/>
-        <v>114.128761</v>
+        <v>377.91113300000001</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -13558,27 +13560,27 @@
       </c>
       <c r="B64" s="71">
         <f ca="1"/>
-        <v>45120</v>
+        <v>45258</v>
       </c>
       <c r="C64" s="72">
         <f ca="1"/>
-        <v>115.540001</v>
+        <v>378.35000600000001</v>
       </c>
       <c r="D64" s="72">
         <f ca="1"/>
-        <v>116.83000199999999</v>
+        <v>383</v>
       </c>
       <c r="E64" s="72">
         <f ca="1"/>
-        <v>114.300003</v>
+        <v>378.16000400000001</v>
       </c>
       <c r="F64" s="72">
         <f ca="1"/>
-        <v>114.595039</v>
+        <v>381.99362200000002</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -13587,27 +13589,27 @@
       </c>
       <c r="B65" s="71">
         <f ca="1"/>
-        <v>45121</v>
+        <v>45259</v>
       </c>
       <c r="C65" s="72">
         <f ca="1"/>
-        <v>115.029999</v>
+        <v>383.76001000000002</v>
       </c>
       <c r="D65" s="72">
         <f ca="1"/>
-        <v>115.379997</v>
+        <v>384.29998799999998</v>
       </c>
       <c r="E65" s="72">
         <f ca="1"/>
-        <v>112.66999800000001</v>
+        <v>377.44000199999999</v>
       </c>
       <c r="F65" s="72">
         <f ca="1"/>
-        <v>112.58111599999999</v>
+        <v>378.15069599999998</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -13616,27 +13618,27 @@
       </c>
       <c r="B66" s="71">
         <f ca="1"/>
-        <v>45124</v>
+        <v>45260</v>
       </c>
       <c r="C66" s="72">
         <f ca="1"/>
-        <v>113.220001</v>
+        <v>378.48998999999998</v>
       </c>
       <c r="D66" s="72">
         <f ca="1"/>
-        <v>114.449997</v>
+        <v>380.08999599999999</v>
       </c>
       <c r="E66" s="72">
         <f ca="1"/>
-        <v>113.160004</v>
+        <v>375.47000100000002</v>
       </c>
       <c r="F66" s="72">
         <f ca="1"/>
-        <v>112.809288</v>
+        <v>378.21060199999999</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -13645,27 +13647,27 @@
       </c>
       <c r="B67" s="71">
         <f ca="1"/>
-        <v>45125</v>
+        <v>45261</v>
       </c>
       <c r="C67" s="72">
         <f ca="1"/>
-        <v>113.760002</v>
+        <v>376.76001000000002</v>
       </c>
       <c r="D67" s="72">
         <f ca="1"/>
-        <v>117.260002</v>
+        <v>378.16000400000001</v>
       </c>
       <c r="E67" s="72">
         <f ca="1"/>
-        <v>113.699997</v>
+        <v>371.30999800000001</v>
       </c>
       <c r="F67" s="72">
         <f ca="1"/>
-        <v>114.505745</v>
+        <v>373.81872600000003</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -13674,27 +13676,27 @@
       </c>
       <c r="B68" s="71">
         <f ca="1"/>
-        <v>45126</v>
+        <v>45264</v>
       </c>
       <c r="C68" s="72">
         <f ca="1"/>
-        <v>115.66999800000001</v>
+        <v>369.10000600000001</v>
       </c>
       <c r="D68" s="72">
         <f ca="1"/>
-        <v>118.16999800000001</v>
+        <v>369.51998900000001</v>
       </c>
       <c r="E68" s="72">
         <f ca="1"/>
-        <v>115.5</v>
+        <v>362.89999399999999</v>
       </c>
       <c r="F68" s="72">
         <f ca="1"/>
-        <v>117.08515199999999</v>
+        <v>368.45864899999998</v>
       </c>
       <c r="G68">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -13703,27 +13705,27 @@
       </c>
       <c r="B69" s="71">
         <f ca="1"/>
-        <v>45127</v>
+        <v>45265</v>
       </c>
       <c r="C69" s="72">
         <f ca="1"/>
-        <v>120</v>
+        <v>366.45001200000002</v>
       </c>
       <c r="D69" s="72">
         <f ca="1"/>
-        <v>121.120003</v>
+        <v>373.07998700000002</v>
       </c>
       <c r="E69" s="72">
         <f ca="1"/>
-        <v>119.089996</v>
+        <v>365.61999500000002</v>
       </c>
       <c r="F69" s="72">
         <f ca="1"/>
-        <v>119.773689</v>
+        <v>371.83236699999998</v>
       </c>
       <c r="G69">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -13732,27 +13734,27 @@
       </c>
       <c r="B70" s="71">
         <f ca="1"/>
-        <v>45128</v>
+        <v>45266</v>
       </c>
       <c r="C70" s="72">
         <f ca="1"/>
-        <v>121.660004</v>
+        <v>373.540009</v>
       </c>
       <c r="D70" s="72">
         <f ca="1"/>
-        <v>123.279999</v>
+        <v>374.17999300000002</v>
       </c>
       <c r="E70" s="72">
         <f ca="1"/>
-        <v>120.730003</v>
+        <v>368.02999899999998</v>
       </c>
       <c r="F70" s="72">
         <f ca="1"/>
-        <v>122.01578499999999</v>
+        <v>368.11923200000001</v>
       </c>
       <c r="G70">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -13761,27 +13763,27 @@
       </c>
       <c r="B71" s="71">
         <f ca="1"/>
-        <v>45131</v>
+        <v>45267</v>
       </c>
       <c r="C71" s="72">
         <f ca="1"/>
-        <v>124</v>
+        <v>368.23001099999999</v>
       </c>
       <c r="D71" s="72">
         <f ca="1"/>
-        <v>127.889999</v>
+        <v>371.45001200000002</v>
       </c>
       <c r="E71" s="72">
         <f ca="1"/>
-        <v>123.510002</v>
+        <v>366.32000699999998</v>
       </c>
       <c r="F71" s="72">
         <f ca="1"/>
-        <v>124.714241</v>
+        <v>370.265289</v>
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -13790,27 +13792,27 @@
       </c>
       <c r="B72" s="71">
         <f ca="1"/>
-        <v>45132</v>
+        <v>45268</v>
       </c>
       <c r="C72" s="72">
         <f ca="1"/>
-        <v>125.300003</v>
+        <v>369.20001200000002</v>
       </c>
       <c r="D72" s="72">
         <f ca="1"/>
-        <v>126.66999800000001</v>
+        <v>374.459991</v>
       </c>
       <c r="E72" s="72">
         <f ca="1"/>
-        <v>124.099998</v>
+        <v>368.23001099999999</v>
       </c>
       <c r="F72" s="72">
         <f ca="1"/>
-        <v>123.553505</v>
+        <v>373.53924599999999</v>
       </c>
       <c r="G72">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -13819,27 +13821,27 @@
       </c>
       <c r="B73" s="71">
         <f ca="1"/>
-        <v>45133</v>
+        <v>45271</v>
       </c>
       <c r="C73" s="72">
         <f ca="1"/>
-        <v>123.870003</v>
+        <v>368.48001099999999</v>
       </c>
       <c r="D73" s="72">
         <f ca="1"/>
-        <v>127.379997</v>
+        <v>371.60000600000001</v>
       </c>
       <c r="E73" s="72">
         <f ca="1"/>
-        <v>123.599998</v>
+        <v>366.10000600000001</v>
       </c>
       <c r="F73" s="72">
         <f ca="1"/>
-        <v>125.180519</v>
+        <v>370.61462399999999</v>
       </c>
       <c r="G73">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -13848,27 +13850,27 @@
       </c>
       <c r="B74" s="71">
         <f ca="1"/>
-        <v>45134</v>
+        <v>45272</v>
       </c>
       <c r="C74" s="72">
         <f ca="1"/>
-        <v>127.510002</v>
+        <v>370.85000600000001</v>
       </c>
       <c r="D74" s="72">
         <f ca="1"/>
-        <v>128.38000500000001</v>
+        <v>374.42001299999998</v>
       </c>
       <c r="E74" s="72">
         <f ca="1"/>
-        <v>124.910004</v>
+        <v>370.459991</v>
       </c>
       <c r="F74" s="72">
         <f ca="1"/>
-        <v>124.47614299999999</v>
+        <v>373.688965</v>
       </c>
       <c r="G74">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -13877,27 +13879,27 @@
       </c>
       <c r="B75" s="71">
         <f ca="1"/>
-        <v>45135</v>
+        <v>45273</v>
       </c>
       <c r="C75" s="72">
         <f ca="1"/>
-        <v>126.739998</v>
+        <v>376.01998900000001</v>
       </c>
       <c r="D75" s="72">
         <f ca="1"/>
-        <v>129.55999800000001</v>
+        <v>377.64001500000001</v>
       </c>
       <c r="E75" s="72">
         <f ca="1"/>
-        <v>125.93</v>
+        <v>370.76998900000001</v>
       </c>
       <c r="F75" s="72">
         <f ca="1"/>
-        <v>128.04763800000001</v>
+        <v>373.67895499999997</v>
       </c>
       <c r="G75">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -13906,27 +13908,27 @@
       </c>
       <c r="B76" s="71">
         <f ca="1"/>
-        <v>45138</v>
+        <v>45274</v>
       </c>
       <c r="C76" s="72">
         <f ca="1"/>
-        <v>130.179993</v>
+        <v>373.30999800000001</v>
       </c>
       <c r="D76" s="72">
         <f ca="1"/>
-        <v>131.5</v>
+        <v>373.76001000000002</v>
       </c>
       <c r="E76" s="72">
         <f ca="1"/>
-        <v>128.429993</v>
+        <v>364.13000499999998</v>
       </c>
       <c r="F76" s="72">
         <f ca="1"/>
-        <v>127.888893</v>
+        <v>365.254547</v>
       </c>
       <c r="G76">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -13935,27 +13937,27 @@
       </c>
       <c r="B77" s="71">
         <f ca="1"/>
-        <v>45139</v>
+        <v>45275</v>
       </c>
       <c r="C77" s="72">
         <f ca="1"/>
-        <v>128.529999</v>
+        <v>366.85000600000001</v>
       </c>
       <c r="D77" s="72">
         <f ca="1"/>
-        <v>129.86999499999999</v>
+        <v>372.39999399999999</v>
       </c>
       <c r="E77" s="72">
         <f ca="1"/>
-        <v>127.379997</v>
+        <v>366.27999899999998</v>
       </c>
       <c r="F77" s="72">
         <f ca="1"/>
-        <v>127.75000799999999</v>
+        <v>370.04571499999997</v>
       </c>
       <c r="G77">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -13964,27 +13966,27 @@
       </c>
       <c r="B78" s="71">
         <f ca="1"/>
-        <v>45140</v>
+        <v>45278</v>
       </c>
       <c r="C78" s="72">
         <f ca="1"/>
-        <v>127.33000199999999</v>
+        <v>369.45001200000002</v>
       </c>
       <c r="D78" s="72">
         <f ca="1"/>
-        <v>129.16000399999999</v>
+        <v>373</v>
       </c>
       <c r="E78" s="72">
         <f ca="1"/>
-        <v>125.44000200000001</v>
+        <v>368.67999300000002</v>
       </c>
       <c r="F78" s="72">
         <f ca="1"/>
-        <v>126.30999799999999</v>
+        <v>371.96212800000001</v>
       </c>
       <c r="G78">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -13993,27 +13995,27 @@
       </c>
       <c r="B79" s="71">
         <f ca="1"/>
-        <v>45141</v>
+        <v>45279</v>
       </c>
       <c r="C79" s="72">
         <f ca="1"/>
-        <v>125.209999</v>
+        <v>371.48998999999998</v>
       </c>
       <c r="D79" s="72">
         <f ca="1"/>
-        <v>126.449997</v>
+        <v>373.26001000000002</v>
       </c>
       <c r="E79" s="72">
         <f ca="1"/>
-        <v>122.57</v>
+        <v>369.83999599999999</v>
       </c>
       <c r="F79" s="72">
         <f ca="1"/>
-        <v>125.599998</v>
+        <v>372.57104500000003</v>
       </c>
       <c r="G79">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -14022,27 +14024,27 @@
       </c>
       <c r="B80" s="71">
         <f ca="1"/>
-        <v>45142</v>
+        <v>45280</v>
       </c>
       <c r="C80" s="72">
         <f ca="1"/>
-        <v>126.860001</v>
+        <v>375</v>
       </c>
       <c r="D80" s="72">
         <f ca="1"/>
-        <v>128.38000500000001</v>
+        <v>376.02999899999998</v>
       </c>
       <c r="E80" s="72">
         <f ca="1"/>
-        <v>125.760002</v>
+        <v>370.52999899999998</v>
       </c>
       <c r="F80" s="72">
         <f ca="1"/>
-        <v>126.889999</v>
+        <v>369.93588299999999</v>
       </c>
       <c r="G80">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -14051,27 +14053,27 @@
       </c>
       <c r="B81" s="71">
         <f ca="1"/>
-        <v>45145</v>
+        <v>45281</v>
       </c>
       <c r="C81" s="72">
         <f ca="1"/>
-        <v>127.16999800000001</v>
+        <v>372.55999800000001</v>
       </c>
       <c r="D81" s="72">
         <f ca="1"/>
-        <v>130.21000699999999</v>
+        <v>374.41000400000001</v>
       </c>
       <c r="E81" s="72">
         <f ca="1"/>
-        <v>126.550003</v>
+        <v>370.040009</v>
       </c>
       <c r="F81" s="72">
         <f ca="1"/>
-        <v>129.28999300000001</v>
+        <v>372.850525</v>
       </c>
       <c r="G81">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -14080,27 +14082,27 @@
       </c>
       <c r="B82" s="71">
         <f ca="1"/>
-        <v>45146</v>
+        <v>45282</v>
       </c>
       <c r="C82" s="72">
         <f ca="1"/>
-        <v>127.470001</v>
+        <v>373.67999300000002</v>
       </c>
       <c r="D82" s="72">
         <f ca="1"/>
-        <v>131.979996</v>
+        <v>375.17999300000002</v>
       </c>
       <c r="E82" s="72">
         <f ca="1"/>
-        <v>126.050003</v>
+        <v>372.709991</v>
       </c>
       <c r="F82" s="72">
         <f ca="1"/>
-        <v>131.33999600000001</v>
+        <v>373.88857999999999</v>
       </c>
       <c r="G82">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -14109,27 +14111,27 @@
       </c>
       <c r="B83" s="71">
         <f ca="1"/>
-        <v>45147</v>
+        <v>45286</v>
       </c>
       <c r="C83" s="72">
         <f ca="1"/>
-        <v>132.39999399999999</v>
+        <v>375</v>
       </c>
       <c r="D83" s="72">
         <f ca="1"/>
-        <v>135.66000399999999</v>
+        <v>376.94000199999999</v>
       </c>
       <c r="E83" s="72">
         <f ca="1"/>
-        <v>131.36000100000001</v>
+        <v>373.5</v>
       </c>
       <c r="F83" s="72">
         <f ca="1"/>
-        <v>133.949997</v>
+        <v>373.96844499999997</v>
       </c>
       <c r="G83">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -14138,27 +14140,27 @@
       </c>
       <c r="B84" s="71">
         <f ca="1"/>
-        <v>45148</v>
+        <v>45287</v>
       </c>
       <c r="C84" s="72">
         <f ca="1"/>
-        <v>134.71000699999999</v>
+        <v>373.69000199999999</v>
       </c>
       <c r="D84" s="72">
         <f ca="1"/>
-        <v>136.94000199999999</v>
+        <v>375.05999800000001</v>
       </c>
       <c r="E84" s="72">
         <f ca="1"/>
-        <v>133.61000100000001</v>
+        <v>372.80999800000001</v>
       </c>
       <c r="F84" s="72">
         <f ca="1"/>
-        <v>134.86000100000001</v>
+        <v>373.379547</v>
       </c>
       <c r="G84">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -14167,27 +14169,27 @@
       </c>
       <c r="B85" s="71">
         <f ca="1"/>
-        <v>45149</v>
+        <v>45288</v>
       </c>
       <c r="C85" s="72">
         <f ca="1"/>
-        <v>135.30999800000001</v>
+        <v>375.36999500000002</v>
       </c>
       <c r="D85" s="72">
         <f ca="1"/>
-        <v>139.30999800000001</v>
+        <v>376.459991</v>
       </c>
       <c r="E85" s="72">
         <f ca="1"/>
-        <v>135.220001</v>
+        <v>374.16000400000001</v>
       </c>
       <c r="F85" s="72">
         <f ca="1"/>
-        <v>139.05999800000001</v>
+        <v>374.58728000000002</v>
       </c>
       <c r="G85">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -14196,27 +14198,27 @@
       </c>
       <c r="B86" s="71">
         <f ca="1"/>
-        <v>45152</v>
+        <v>45289</v>
       </c>
       <c r="C86" s="72">
         <f ca="1"/>
-        <v>137.779999</v>
+        <v>376</v>
       </c>
       <c r="D86" s="72">
         <f ca="1"/>
-        <v>138.13999899999999</v>
+        <v>377.16000400000001</v>
       </c>
       <c r="E86" s="72">
         <f ca="1"/>
-        <v>135.199997</v>
+        <v>373.48001099999999</v>
       </c>
       <c r="F86" s="72">
         <f ca="1"/>
-        <v>136.5</v>
+        <v>375.34588600000001</v>
       </c>
       <c r="G86">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -14225,27 +14227,27 @@
       </c>
       <c r="B87" s="71">
         <f ca="1"/>
-        <v>45153</v>
+        <v>45293</v>
       </c>
       <c r="C87" s="72">
         <f ca="1"/>
-        <v>132.929993</v>
+        <v>373.85998499999999</v>
       </c>
       <c r="D87" s="72">
         <f ca="1"/>
-        <v>133.449997</v>
+        <v>375.89999399999999</v>
       </c>
       <c r="E87" s="72">
         <f ca="1"/>
-        <v>130.240005</v>
+        <v>366.76998900000001</v>
       </c>
       <c r="F87" s="72">
         <f ca="1"/>
-        <v>131.13999899999999</v>
+        <v>370.18542500000001</v>
       </c>
       <c r="G87">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -14254,27 +14256,27 @@
       </c>
       <c r="B88" s="71">
         <f ca="1"/>
-        <v>45154</v>
+        <v>45294</v>
       </c>
       <c r="C88" s="72">
         <f ca="1"/>
-        <v>131.5</v>
+        <v>369.01001000000002</v>
       </c>
       <c r="D88" s="72">
         <f ca="1"/>
-        <v>133.28999300000001</v>
+        <v>373.26001000000002</v>
       </c>
       <c r="E88" s="72">
         <f ca="1"/>
-        <v>130.470001</v>
+        <v>368.51001000000002</v>
       </c>
       <c r="F88" s="72">
         <f ca="1"/>
-        <v>130.94000199999999</v>
+        <v>369.91592400000002</v>
       </c>
       <c r="G88">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -14283,27 +14285,27 @@
       </c>
       <c r="B89" s="71">
         <f ca="1"/>
-        <v>45155</v>
+        <v>45295</v>
       </c>
       <c r="C89" s="72">
         <f ca="1"/>
-        <v>132.85000600000001</v>
+        <v>370.67001299999998</v>
       </c>
       <c r="D89" s="72">
         <f ca="1"/>
-        <v>134.61000100000001</v>
+        <v>373.10000600000001</v>
       </c>
       <c r="E89" s="72">
         <f ca="1"/>
-        <v>131.94000199999999</v>
+        <v>367.17001299999998</v>
       </c>
       <c r="F89" s="72">
         <f ca="1"/>
-        <v>132.020004</v>
+        <v>367.26083399999999</v>
       </c>
       <c r="G89">
         <f>D8</f>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -14312,27 +14314,27 @@
       </c>
       <c r="B90" s="71">
         <f ca="1"/>
-        <v>45156</v>
+        <v>45296</v>
       </c>
       <c r="C90" s="72">
         <f ca="1"/>
-        <v>130.699997</v>
+        <v>368.97000100000002</v>
       </c>
       <c r="D90" s="72">
         <f ca="1"/>
-        <v>134.14999399999999</v>
+        <v>372.05999800000001</v>
       </c>
       <c r="E90" s="72">
         <f ca="1"/>
-        <v>130.63999899999999</v>
+        <v>366.5</v>
       </c>
       <c r="F90" s="72">
         <f ca="1"/>
-        <v>133.58000200000001</v>
+        <v>367.07119799999998</v>
       </c>
       <c r="G90">
         <f>G89</f>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -14341,27 +14343,27 @@
       </c>
       <c r="B91" s="71">
         <f ca="1"/>
-        <v>45159</v>
+        <v>45299</v>
       </c>
       <c r="C91" s="72">
         <f ca="1"/>
-        <v>134.08000200000001</v>
+        <v>369.29998799999998</v>
       </c>
       <c r="D91" s="72">
         <f ca="1"/>
-        <v>134.550003</v>
+        <v>375.20001200000002</v>
       </c>
       <c r="E91" s="72">
         <f ca="1"/>
-        <v>129.33999600000001</v>
+        <v>369.01001000000002</v>
       </c>
       <c r="F91" s="72">
         <f ca="1"/>
-        <v>131.16000399999999</v>
+        <v>373.99838299999999</v>
       </c>
       <c r="G91">
         <f t="shared" ref="G91:G111" si="2">G90</f>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -14370,27 +14372,27 @@
       </c>
       <c r="B92" s="71">
         <f ca="1"/>
-        <v>45160</v>
+        <v>45300</v>
       </c>
       <c r="C92" s="72">
         <f ca="1"/>
-        <v>131.39999399999999</v>
+        <v>372.01001000000002</v>
       </c>
       <c r="D92" s="72">
         <f ca="1"/>
-        <v>132.320007</v>
+        <v>375.98998999999998</v>
       </c>
       <c r="E92" s="72">
         <f ca="1"/>
-        <v>130.55999800000001</v>
+        <v>371.19000199999999</v>
       </c>
       <c r="F92" s="72">
         <f ca="1"/>
-        <v>130.88999899999999</v>
+        <v>375.09637500000002</v>
       </c>
       <c r="G92">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -14399,27 +14401,27 @@
       </c>
       <c r="B93" s="71">
         <f ca="1"/>
-        <v>45161</v>
+        <v>45301</v>
       </c>
       <c r="C93" s="72">
         <f ca="1"/>
-        <v>129.5</v>
+        <v>376.36999500000002</v>
       </c>
       <c r="D93" s="72">
         <f ca="1"/>
-        <v>130.30999800000001</v>
+        <v>384.17001299999998</v>
       </c>
       <c r="E93" s="72">
         <f ca="1"/>
-        <v>126.129997</v>
+        <v>376.32000699999998</v>
       </c>
       <c r="F93" s="72">
         <f ca="1"/>
-        <v>129.36999499999999</v>
+        <v>382.063446</v>
       </c>
       <c r="G93">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -14428,27 +14430,27 @@
       </c>
       <c r="B94" s="71">
         <f ca="1"/>
-        <v>45162</v>
+        <v>45302</v>
       </c>
       <c r="C94" s="72">
         <f ca="1"/>
-        <v>128.720001</v>
+        <v>386</v>
       </c>
       <c r="D94" s="72">
         <f ca="1"/>
-        <v>130.270004</v>
+        <v>390.67999300000002</v>
       </c>
       <c r="E94" s="72">
         <f ca="1"/>
-        <v>127.69000200000001</v>
+        <v>380.38000499999998</v>
       </c>
       <c r="F94" s="72">
         <f ca="1"/>
-        <v>129.46000699999999</v>
+        <v>383.92004400000002</v>
       </c>
       <c r="G94">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -14457,27 +14459,27 @@
       </c>
       <c r="B95" s="71">
         <f ca="1"/>
-        <v>45163</v>
+        <v>45303</v>
       </c>
       <c r="C95" s="72">
         <f ca="1"/>
-        <v>130.550003</v>
+        <v>385.48998999999998</v>
       </c>
       <c r="D95" s="72">
         <f ca="1"/>
-        <v>135.779999</v>
+        <v>388.67999300000002</v>
       </c>
       <c r="E95" s="72">
         <f ca="1"/>
-        <v>129.08000200000001</v>
+        <v>384.64999399999999</v>
       </c>
       <c r="F95" s="72">
         <f ca="1"/>
-        <v>133.11999499999999</v>
+        <v>387.75295999999997</v>
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -14486,27 +14488,27 @@
       </c>
       <c r="B96" s="71">
         <f ca="1"/>
-        <v>45166</v>
+        <v>45307</v>
       </c>
       <c r="C96" s="72">
         <f ca="1"/>
-        <v>133.14999399999999</v>
+        <v>393.66000400000001</v>
       </c>
       <c r="D96" s="72">
         <f ca="1"/>
-        <v>133.14999399999999</v>
+        <v>394.02999899999998</v>
       </c>
       <c r="E96" s="72">
         <f ca="1"/>
-        <v>130.509995</v>
+        <v>387.61999500000002</v>
       </c>
       <c r="F96" s="72">
         <f ca="1"/>
-        <v>131.60000600000001</v>
+        <v>389.549622</v>
       </c>
       <c r="G96">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -14515,27 +14517,27 @@
       </c>
       <c r="B97" s="71">
         <f ca="1"/>
-        <v>45167</v>
+        <v>45308</v>
       </c>
       <c r="C97" s="72">
         <f ca="1"/>
-        <v>131.83000200000001</v>
+        <v>387.98001099999999</v>
       </c>
       <c r="D97" s="72">
         <f ca="1"/>
-        <v>132.240005</v>
+        <v>390.10998499999999</v>
       </c>
       <c r="E97" s="72">
         <f ca="1"/>
-        <v>129.33000200000001</v>
+        <v>384.80999800000001</v>
       </c>
       <c r="F97" s="72">
         <f ca="1"/>
-        <v>131.38999899999999</v>
+        <v>388.75109900000001</v>
       </c>
       <c r="G97">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -14544,27 +14546,27 @@
       </c>
       <c r="B98" s="71">
         <f ca="1"/>
-        <v>45168</v>
+        <v>45309</v>
       </c>
       <c r="C98" s="72">
         <f ca="1"/>
-        <v>131.770004</v>
+        <v>391.72000100000002</v>
       </c>
       <c r="D98" s="72">
         <f ca="1"/>
-        <v>131.88999899999999</v>
+        <v>393.98998999999998</v>
       </c>
       <c r="E98" s="72">
         <f ca="1"/>
-        <v>129.759995</v>
+        <v>390.11999500000002</v>
       </c>
       <c r="F98" s="72">
         <f ca="1"/>
-        <v>131.449997</v>
+        <v>393.14297499999998</v>
       </c>
       <c r="G98">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -14573,27 +14575,27 @@
       </c>
       <c r="B99" s="71">
         <f ca="1"/>
-        <v>45169</v>
+        <v>45310</v>
       </c>
       <c r="C99" s="72">
         <f ca="1"/>
-        <v>131.820007</v>
+        <v>395.76001000000002</v>
       </c>
       <c r="D99" s="72">
         <f ca="1"/>
-        <v>132.10000600000001</v>
+        <v>398.67001299999998</v>
       </c>
       <c r="E99" s="72">
         <f ca="1"/>
-        <v>128.38000500000001</v>
+        <v>393.5</v>
       </c>
       <c r="F99" s="72">
         <f ca="1"/>
-        <v>129.89999399999999</v>
+        <v>397.93414300000001</v>
       </c>
       <c r="G99">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -14602,27 +14604,27 @@
       </c>
       <c r="B100" s="71">
         <f ca="1"/>
-        <v>45170</v>
+        <v>45313</v>
       </c>
       <c r="C100" s="72">
         <f ca="1"/>
-        <v>132</v>
+        <v>400.01998900000001</v>
       </c>
       <c r="D100" s="72">
         <f ca="1"/>
-        <v>134.60000600000001</v>
+        <v>400.61999500000002</v>
       </c>
       <c r="E100" s="72">
         <f ca="1"/>
-        <v>131.78999300000001</v>
+        <v>393.58999599999999</v>
       </c>
       <c r="F100" s="72">
         <f ca="1"/>
-        <v>133.58000200000001</v>
+        <v>395.77810699999998</v>
       </c>
       <c r="G100">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -14631,27 +14633,27 @@
       </c>
       <c r="B101" s="71">
         <f ca="1"/>
-        <v>45174</v>
+        <v>45314</v>
       </c>
       <c r="C101" s="72">
         <f ca="1"/>
-        <v>134.39999399999999</v>
+        <v>395.75</v>
       </c>
       <c r="D101" s="72">
         <f ca="1"/>
-        <v>135.14999399999999</v>
+        <v>399.38000499999998</v>
       </c>
       <c r="E101" s="72">
         <f ca="1"/>
-        <v>132.490005</v>
+        <v>393.92999300000002</v>
       </c>
       <c r="F101" s="72">
         <f ca="1"/>
-        <v>133.11999499999999</v>
+        <v>398.16369600000002</v>
       </c>
       <c r="G101">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -14660,27 +14662,27 @@
       </c>
       <c r="B102" s="71">
         <f ca="1"/>
-        <v>45175</v>
+        <v>45315</v>
       </c>
       <c r="C102" s="72">
         <f ca="1"/>
-        <v>132.970001</v>
+        <v>401.540009</v>
       </c>
       <c r="D102" s="72">
         <f ca="1"/>
-        <v>135.020004</v>
+        <v>405.63000499999998</v>
       </c>
       <c r="E102" s="72">
         <f ca="1"/>
-        <v>131.820007</v>
+        <v>400.45001200000002</v>
       </c>
       <c r="F102" s="72">
         <f ca="1"/>
-        <v>134.029999</v>
+        <v>401.81692500000003</v>
       </c>
       <c r="G102">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -14689,27 +14691,27 @@
       </c>
       <c r="B103" s="71">
         <f ca="1"/>
-        <v>45176</v>
+        <v>45316</v>
       </c>
       <c r="C103" s="72">
         <f ca="1"/>
-        <v>134.240005</v>
+        <v>404.32000699999998</v>
       </c>
       <c r="D103" s="72">
         <f ca="1"/>
-        <v>137.070007</v>
+        <v>407.01001000000002</v>
       </c>
       <c r="E103" s="72">
         <f ca="1"/>
-        <v>134.009995</v>
+        <v>402.52999899999998</v>
       </c>
       <c r="F103" s="72">
         <f ca="1"/>
-        <v>136.25</v>
+        <v>404.122681</v>
       </c>
       <c r="G103">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -14718,27 +14720,27 @@
       </c>
       <c r="B104" s="71">
         <f ca="1"/>
-        <v>45177</v>
+        <v>45317</v>
       </c>
       <c r="C104" s="72">
         <f ca="1"/>
-        <v>138.279999</v>
+        <v>404.36999500000002</v>
       </c>
       <c r="D104" s="72">
         <f ca="1"/>
-        <v>143.14999399999999</v>
+        <v>406.17001299999998</v>
       </c>
       <c r="E104" s="72">
         <f ca="1"/>
-        <v>137.470001</v>
+        <v>402.42999300000002</v>
       </c>
       <c r="F104" s="72">
         <f ca="1"/>
-        <v>142.05999800000001</v>
+        <v>403.18441799999999</v>
       </c>
       <c r="G104">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -14747,27 +14749,27 @@
       </c>
       <c r="B105" s="71">
         <f ca="1"/>
-        <v>45180</v>
+        <v>45320</v>
       </c>
       <c r="C105" s="72">
         <f ca="1"/>
-        <v>143</v>
+        <v>406.05999800000001</v>
       </c>
       <c r="D105" s="72">
         <f ca="1"/>
-        <v>145.44000199999999</v>
+        <v>409.98001099999999</v>
       </c>
       <c r="E105" s="72">
         <f ca="1"/>
-        <v>141.240005</v>
+        <v>404.32998700000002</v>
       </c>
       <c r="F105" s="72">
         <f ca="1"/>
-        <v>143.740005</v>
+        <v>408.96371499999998</v>
       </c>
       <c r="G105">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -14776,27 +14778,27 @@
       </c>
       <c r="B106" s="71">
         <f ca="1"/>
-        <v>45181</v>
+        <v>45321</v>
       </c>
       <c r="C106" s="72">
         <f ca="1"/>
-        <v>143.970001</v>
+        <v>412.26001000000002</v>
       </c>
       <c r="D106" s="72">
         <f ca="1"/>
-        <v>147.30999800000001</v>
+        <v>413.04998799999998</v>
       </c>
       <c r="E106" s="72">
         <f ca="1"/>
-        <v>143.179993</v>
+        <v>406.45001200000002</v>
       </c>
       <c r="F106" s="72">
         <f ca="1"/>
-        <v>146.259995</v>
+        <v>407.83581500000003</v>
       </c>
       <c r="G106">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -14805,27 +14807,27 @@
       </c>
       <c r="B107" s="71">
         <f ca="1"/>
-        <v>45182</v>
+        <v>45322</v>
       </c>
       <c r="C107" s="72">
         <f ca="1"/>
-        <v>146.53999300000001</v>
+        <v>406.959991</v>
       </c>
       <c r="D107" s="72">
         <f ca="1"/>
-        <v>146.69000199999999</v>
+        <v>415.32000699999998</v>
       </c>
       <c r="E107" s="72">
         <f ca="1"/>
-        <v>143.570007</v>
+        <v>397.209991</v>
       </c>
       <c r="F107" s="72">
         <f ca="1"/>
-        <v>145.479996</v>
+        <v>396.84613000000002</v>
       </c>
       <c r="G107">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -14834,27 +14836,27 @@
       </c>
       <c r="B108" s="71">
         <f ca="1"/>
-        <v>45183</v>
+        <v>45323</v>
       </c>
       <c r="C108" s="72">
         <f ca="1"/>
-        <v>147</v>
+        <v>401.82998700000002</v>
       </c>
       <c r="D108" s="72">
         <f ca="1"/>
-        <v>147.60000600000001</v>
+        <v>408</v>
       </c>
       <c r="E108" s="72">
         <f ca="1"/>
-        <v>145.220001</v>
+        <v>401.79998799999998</v>
       </c>
       <c r="F108" s="72">
         <f ca="1"/>
-        <v>145.949997</v>
+        <v>403.03469799999999</v>
       </c>
       <c r="G108">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -14863,27 +14865,27 @@
       </c>
       <c r="B109" s="71">
         <f ca="1"/>
-        <v>45184</v>
+        <v>45324</v>
       </c>
       <c r="C109" s="72">
         <f ca="1"/>
-        <v>144.729996</v>
+        <v>403.80999800000001</v>
       </c>
       <c r="D109" s="72">
         <f ca="1"/>
-        <v>145.30999800000001</v>
+        <v>412.64999399999999</v>
       </c>
       <c r="E109" s="72">
         <f ca="1"/>
-        <v>143.08000200000001</v>
+        <v>403.55999800000001</v>
       </c>
       <c r="F109" s="72">
         <f ca="1"/>
-        <v>143.679993</v>
+        <v>410.46096799999998</v>
       </c>
       <c r="G109">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -14892,27 +14894,27 @@
       </c>
       <c r="B110" s="71">
         <f ca="1"/>
-        <v>45187</v>
+        <v>45327</v>
       </c>
       <c r="C110" s="72">
         <f ca="1"/>
-        <v>145.41999799999999</v>
+        <v>409.89999399999999</v>
       </c>
       <c r="D110" s="72">
         <f ca="1"/>
-        <v>148.41999799999999</v>
+        <v>411.16000400000001</v>
       </c>
       <c r="E110" s="72">
         <f ca="1"/>
-        <v>144.800003</v>
+        <v>403.98998999999998</v>
       </c>
       <c r="F110" s="72">
         <f ca="1"/>
-        <v>146.279999</v>
+        <v>404.90124500000002</v>
       </c>
       <c r="G110">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -14921,27 +14923,27 @@
       </c>
       <c r="B111" s="71">
         <f ca="1"/>
-        <v>45188</v>
+        <v>45328</v>
       </c>
       <c r="C111" s="72">
         <f ca="1"/>
-        <v>147.679993</v>
+        <v>405.88000499999998</v>
       </c>
       <c r="D111" s="72">
         <f ca="1"/>
-        <v>147.800003</v>
+        <v>407.97000100000002</v>
       </c>
       <c r="E111" s="72">
         <f ca="1"/>
-        <v>141.88000500000001</v>
+        <v>402.91000400000001</v>
       </c>
       <c r="F111" s="72">
         <f ca="1"/>
-        <v>142.66000399999999</v>
+        <v>404.74151599999999</v>
       </c>
       <c r="G111">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -14950,27 +14952,27 @@
       </c>
       <c r="B112" s="71">
         <f ca="1"/>
-        <v>45189</v>
+        <v>45329</v>
       </c>
       <c r="C112" s="72">
         <f ca="1"/>
-        <v>142.5</v>
+        <v>407.44000199999999</v>
       </c>
       <c r="D112" s="72">
         <f ca="1"/>
-        <v>145.509995</v>
+        <v>414.29998799999998</v>
       </c>
       <c r="E112" s="72">
         <f ca="1"/>
-        <v>142.279999</v>
+        <v>407.39999399999999</v>
       </c>
       <c r="F112" s="72">
         <f ca="1"/>
-        <v>142.970001</v>
+        <v>413.285706</v>
       </c>
       <c r="G112" s="72">
         <f>D7</f>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -14979,27 +14981,27 @@
       </c>
       <c r="B113" s="71">
         <f ca="1"/>
-        <v>45190</v>
+        <v>45330</v>
       </c>
       <c r="C113" s="72">
         <f ca="1"/>
-        <v>148.58999600000001</v>
+        <v>414.04998799999998</v>
       </c>
       <c r="D113" s="72">
         <f ca="1"/>
-        <v>152.199997</v>
+        <v>415.55999800000001</v>
       </c>
       <c r="E113" s="72">
         <f ca="1"/>
-        <v>144.86999499999999</v>
+        <v>412.52999899999998</v>
       </c>
       <c r="F113" s="72">
         <f ca="1"/>
-        <v>146.300003</v>
+        <v>413.34561200000002</v>
       </c>
       <c r="G113" s="72">
         <f>G112</f>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -15008,27 +15010,27 @@
       </c>
       <c r="B114" s="71">
         <f ca="1"/>
-        <v>45191</v>
+        <v>45331</v>
       </c>
       <c r="C114" s="72">
         <f ca="1"/>
-        <v>147.570007</v>
+        <v>415.25</v>
       </c>
       <c r="D114" s="72">
         <f ca="1"/>
-        <v>149.679993</v>
+        <v>420.82000699999998</v>
       </c>
       <c r="E114" s="72">
         <f ca="1"/>
-        <v>145.08999600000001</v>
+        <v>415.08999599999999</v>
       </c>
       <c r="F114" s="72">
         <f ca="1"/>
-        <v>145.270004</v>
+        <v>419.77371199999999</v>
       </c>
       <c r="G114" s="72">
         <f t="shared" ref="G114:G118" si="3">G113</f>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -15037,27 +15039,27 @@
       </c>
       <c r="B115" s="71">
         <f ca="1"/>
-        <v>45194</v>
+        <v>45334</v>
       </c>
       <c r="C115" s="72">
         <f ca="1"/>
-        <v>145.270004</v>
+        <v>420.55999800000001</v>
       </c>
       <c r="D115" s="72">
         <f ca="1"/>
-        <v>147.64999399999999</v>
+        <v>420.73998999999998</v>
       </c>
       <c r="E115" s="72">
         <f ca="1"/>
-        <v>145</v>
+        <v>414.75</v>
       </c>
       <c r="F115" s="72">
         <f ca="1"/>
-        <v>146.53999300000001</v>
+        <v>414.49349999999998</v>
       </c>
       <c r="G115" s="72">
         <f t="shared" si="3"/>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -15066,27 +15068,27 @@
       </c>
       <c r="B116" s="71">
         <f ca="1"/>
-        <v>45195</v>
+        <v>45335</v>
       </c>
       <c r="C116" s="72">
         <f ca="1"/>
-        <v>145.020004</v>
+        <v>404.94000199999999</v>
       </c>
       <c r="D116" s="72">
         <f ca="1"/>
-        <v>145.19000199999999</v>
+        <v>410.07000699999998</v>
       </c>
       <c r="E116" s="72">
         <f ca="1"/>
-        <v>140.78999300000001</v>
+        <v>403.39001500000001</v>
       </c>
       <c r="F116" s="72">
         <f ca="1"/>
-        <v>141.58000200000001</v>
+        <v>405.57000699999998</v>
       </c>
       <c r="G116" s="72">
         <f t="shared" si="3"/>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -15095,27 +15097,27 @@
       </c>
       <c r="B117" s="71">
         <f ca="1"/>
-        <v>45196</v>
+        <v>45336</v>
       </c>
       <c r="C117" s="72">
         <f ca="1"/>
-        <v>142.75</v>
+        <v>408.07000699999998</v>
       </c>
       <c r="D117" s="72">
         <f ca="1"/>
-        <v>144.91999799999999</v>
+        <v>409.83999599999999</v>
       </c>
       <c r="E117" s="72">
         <f ca="1"/>
-        <v>142.14999399999999</v>
+        <v>404.57000699999998</v>
       </c>
       <c r="F117" s="72">
         <f ca="1"/>
-        <v>143.949997</v>
+        <v>409.48998999999998</v>
       </c>
       <c r="G117" s="72">
         <f t="shared" si="3"/>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -15124,27 +15126,27 @@
       </c>
       <c r="B118" s="71">
         <f ca="1"/>
-        <v>45197</v>
+        <v>45337</v>
       </c>
       <c r="C118" s="72">
         <f ca="1"/>
-        <v>143.529999</v>
+        <v>408.14001500000001</v>
       </c>
       <c r="D118" s="72">
         <f ca="1"/>
-        <v>148.279999</v>
+        <v>409.13000499999998</v>
       </c>
       <c r="E118" s="72">
         <f ca="1"/>
-        <v>143.529999</v>
+        <v>404.290009</v>
       </c>
       <c r="F118" s="72">
         <f ca="1"/>
-        <v>147.179993</v>
+        <v>406.55999800000001</v>
       </c>
       <c r="G118" s="72">
         <f t="shared" si="3"/>
-        <v>6.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -15153,27 +15155,27 @@
       </c>
       <c r="B119" s="71">
         <f ca="1"/>
-        <v>45198</v>
+        <v>45338</v>
       </c>
       <c r="C119" s="72">
         <f ca="1"/>
-        <v>147.14999399999999</v>
+        <v>407.959991</v>
       </c>
       <c r="D119" s="72">
         <f ca="1"/>
-        <v>146.949997</v>
+        <v>408.290009</v>
       </c>
       <c r="E119" s="72">
         <f ca="1"/>
-        <v>141.19000199999999</v>
+        <v>403.44000199999999</v>
       </c>
       <c r="F119" s="72">
         <f ca="1"/>
-        <v>141.51499899999999</v>
+        <v>404.05999800000001</v>
       </c>
       <c r="G119" s="72">
         <f>D6</f>
-        <v>7.63</v>
+        <v>2.81</v>
       </c>
     </row>
   </sheetData>
